--- a/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.229</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.912</v>
+        <v>19.686</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.624</v>
+        <v>-0.9389999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.333</v>
+        <v>24.406</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.985</v>
+        <v>15.857</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>34.00768409269585</v>
+        <v>1.408921463278705</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>34.00768409269585</v>
+        <v>25.10667714128487</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34.00768409269585</v>
+        <v>30.82089055330629</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>34.00768409269585</v>
+        <v>0.5812498719910657</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>34.00768409269585</v>
+        <v>24.69548331176246</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>34.00768409269585</v>
+        <v>30.55821187814262</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>34.00768409269585</v>
+        <v>9.49020322644866</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>34.00768409269585</v>
+        <v>36.99814700670969</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.00768409269585</v>
+        <v>43.35162967667223</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>34.00768409269585</v>
+        <v>42.27389941217972</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>34.00768409269585</v>
+        <v>49.40097400060937</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34.00768409269585</v>
+        <v>54.74115276808469</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>34.00768409269585</v>
+        <v>12.89159777146243</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>34.00768409269585</v>
+        <v>43.97929913156246</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34.00768409269585</v>
+        <v>51.65336959644991</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>34.00768409269585</v>
+        <v>5.026729159292348</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>34.00768409269585</v>
+        <v>28.7307290088662</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.00768409269585</v>
+        <v>34.45023490214588</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>34.00768409269585</v>
+        <v>4.191896261330829</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>34.00768409269585</v>
+        <v>28.31067053482319</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>34.00768409269585</v>
+        <v>34.17988372975013</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>34.00768409269585</v>
+        <v>13.10546871570147</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>34.00768409269585</v>
+        <v>40.6199399367657</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>34.00768409269585</v>
+        <v>46.97889468262996</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>34.00768409269585</v>
+        <v>45.89720010510699</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>34.00768409269585</v>
+        <v>53.02636876446444</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>34.00768409269585</v>
+        <v>58.37039089167909</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>34.00768409269585</v>
+        <v>16.51401619270415</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>34.00768409269585</v>
+        <v>47.61274959075068</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>34.00768409269585</v>
+        <v>55.28937614902269</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>34.00768409269585</v>
+        <v>18.55927977954649</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.00768409269585</v>
+        <v>42.26861726697813</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.00768409269585</v>
+        <v>47.98758741777418</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>34.00768409269585</v>
+        <v>17.73279850324069</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>34.00768409269585</v>
+        <v>41.85820747387969</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>34.00768409269585</v>
+        <v>47.72628888195253</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>34.00768409269585</v>
+        <v>26.65008868659639</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>34.00768409269585</v>
+        <v>54.16976843343478</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>34.00768409269585</v>
+        <v>60.52812797000284</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>34.00768409269585</v>
+        <v>59.45885763313821</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.00768409269585</v>
+        <v>66.58921840258652</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>34.00768409269585</v>
+        <v>71.93357409043891</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>34.00768409269585</v>
+        <v>30.06753619959123</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.00768409269585</v>
+        <v>61.17267597454644</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>34.00768409269585</v>
+        <v>68.84990198644253</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>34.00768409269585</v>
+        <v>7.088949232946778</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>34.00768409269585</v>
+        <v>30.78788875567124</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>34.00768409269585</v>
+        <v>36.50138218214009</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>34.00768409269585</v>
+        <v>6.261439604491432</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>34.00768409269585</v>
+        <v>30.37667253895664</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>34.00768409269585</v>
+        <v>36.23856302580974</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>34.00768409269585</v>
+        <v>15.17098824507956</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>34.00768409269585</v>
+        <v>42.68006026755459</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>34.00768409269585</v>
+        <v>49.03278799046051</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34.00768409269585</v>
+        <v>47.95493738369258</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.00768409269585</v>
+        <v>55.08277279214188</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>34.00768409269585</v>
+        <v>60.42131649452186</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>34.00768409269585</v>
+        <v>18.57035572228823</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>34.00768409269585</v>
+        <v>49.65982170195728</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>34.00768409269585</v>
+        <v>57.33295909444676</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>34.00768409269585</v>
+        <v>10.69724930161123</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.00768409269585</v>
+        <v>34.40243254078221</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.00768409269585</v>
+        <v>40.12121799738632</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>34.00768409269585</v>
+        <v>9.862577496246093</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>34.00768409269585</v>
+        <v>33.98235093347169</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.00768409269585</v>
+        <v>39.85072556914677</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>34.00768409269585</v>
+        <v>18.77674509549751</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>34.00768409269585</v>
+        <v>46.29234407920806</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>34.00768409269585</v>
+        <v>52.65054341278231</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>34.00768409269585</v>
+        <v>51.56872944138716</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>34.00768409269585</v>
+        <v>58.69865883159706</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>34.00768409269585</v>
+        <v>64.0410455069533</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>34.00768409269585</v>
+        <v>22.18326634177446</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>34.00768409269585</v>
+        <v>53.28376370707086</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>34.00768409269585</v>
+        <v>60.95945706621522</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>34.00768409269585</v>
+        <v>24.2324785209422</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>34.00768409269585</v>
+        <v>47.9429994072094</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>34.00768409269585</v>
+        <v>53.66124907943184</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>34.00768409269585</v>
+        <v>23.40615811017914</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.00768409269585</v>
+        <v>47.53256621681111</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>34.00768409269585</v>
+        <v>53.39980910328721</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>34.00768409269585</v>
+        <v>32.32404356813571</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>34.00768409269585</v>
+        <v>59.84485106329531</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>34.00768409269585</v>
+        <v>66.20245513024052</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>34.00768409269585</v>
+        <v>65.13306441592486</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>34.00768409269585</v>
+        <v>72.26418612360929</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>34.00768409269585</v>
+        <v>77.60690625489029</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>34.00768409269585</v>
+        <v>35.73946401576551</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>34.00768409269585</v>
+        <v>66.84636783557993</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>34.00768409269585</v>
+        <v>74.52266054709013</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>34.00768409269585</v>
+        <v>7.915365010839526</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>34.00768409269585</v>
+        <v>31.61414116341131</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.00768409269585</v>
+        <v>37.32734978714096</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>34.00768409269585</v>
+        <v>7.087707636578319</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>34.00768409269585</v>
+        <v>31.20283989160918</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>34.00768409269585</v>
+        <v>37.06436404207396</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>34.00768409269585</v>
+        <v>15.99736633433178</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>34.00768409269585</v>
+        <v>43.50630741537871</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>34.00768409269585</v>
+        <v>49.85874816248564</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>34.00768409269585</v>
+        <v>48.78132465956979</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>34.00768409269585</v>
+        <v>55.90897025175501</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.00768409269585</v>
+        <v>61.24745435650844</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>34.00768409269585</v>
+        <v>19.39689054837014</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>34.00768409269585</v>
+        <v>50.48610277341423</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>34.00768409269585</v>
+        <v>58.15886101876707</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>34.00768409269585</v>
+        <v>11.5275882880511</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>34.00768409269585</v>
+        <v>35.23260822677013</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>34.00768409269585</v>
+        <v>40.95110887317263</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>34.00768409269585</v>
+        <v>10.69276897368592</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>34.00768409269585</v>
+        <v>34.81244181084399</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>34.00768409269585</v>
+        <v>40.68045011555681</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>34.00768409269585</v>
+        <v>19.60704685640427</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>34.00768409269585</v>
+        <v>47.12251498598322</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>34.00768409269585</v>
+        <v>53.4804273244208</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>34.00768409269585</v>
+        <v>52.39904035967128</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>34.00768409269585</v>
+        <v>59.52877979764081</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>34.00768409269585</v>
+        <v>64.87110685645426</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>34.00768409269585</v>
+        <v>23.01372461774564</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>34.00768409269585</v>
+        <v>54.11396821783715</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>34.00768409269585</v>
+        <v>61.78928244270024</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>34.00768409269585</v>
+        <v>25.06314787472353</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>34.00768409269585</v>
+        <v>48.77350549008894</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>34.00768409269585</v>
+        <v>54.4914703752497</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>34.00768409269585</v>
+        <v>24.23667986715826</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>34.00768409269585</v>
+        <v>48.36298742466623</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>34.00768409269585</v>
+        <v>54.2298640019353</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>34.00768409269585</v>
+        <v>33.15467564480626</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>34.00768409269585</v>
+        <v>60.67535231378882</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>34.00768409269585</v>
+        <v>67.03266941101445</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>34.00768409269585</v>
+        <v>65.96370559606497</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>34.00768409269585</v>
+        <v>73.09463740458988</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>34.00768409269585</v>
+        <v>78.43729791714121</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>34.00768409269585</v>
+        <v>36.57025249983984</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>34.00768409269585</v>
+        <v>67.67690264459735</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>34.00768409269585</v>
+        <v>75.35281625188746</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>34.00768409269585</v>
+        <v>0.137067508519511</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>34.00768409269585</v>
+        <v>23.83418507411715</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>34.00768409269585</v>
+        <v>29.54811001349366</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>34.00768409269585</v>
+        <v>-0.6912860609163651</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>34.00768409269585</v>
+        <v>23.42221972255765</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>34.00768409269585</v>
+        <v>29.28468730635176</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>34.00768409269585</v>
+        <v>8.217471840213296</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>34.00768409269585</v>
+        <v>35.7247488631093</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>34.00768409269585</v>
+        <v>42.07792319550298</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>34.00768409269585</v>
+        <v>41.00015821673365</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>34.00768409269585</v>
+        <v>48.12709135038686</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.00768409269585</v>
+        <v>53.46720480687553</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>34.00768409269585</v>
+        <v>11.61889455333266</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>34.00768409269585</v>
+        <v>42.70582148671336</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>34.00768409269585</v>
+        <v>50.37953922501764</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>34.00768409269585</v>
+        <v>3.753441303823468</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>34.00768409269585</v>
+        <v>27.45680285275727</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>34.00768409269585</v>
+        <v>33.17602019447735</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>34.00768409269585</v>
+        <v>2.917926382284794</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>34.00768409269585</v>
+        <v>27.03597283732846</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>34.00768409269585</v>
+        <v>32.90492494497424</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>34.00768409269585</v>
+        <v>11.83130325111334</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>34.00768409269585</v>
+        <v>39.34510752615698</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>34.00768409269585</v>
+        <v>45.7037538538559</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>34.00768409269585</v>
+        <v>44.62202468340932</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>34.00768409269585</v>
+        <v>51.75105184297557</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>34.00768409269585</v>
+        <v>57.09500860852255</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>34.00768409269585</v>
+        <v>15.23987878397383</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>34.00768409269585</v>
+        <v>46.33783743726779</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>34.00768409269585</v>
+        <v>54.01411122557828</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>34.00768409269585</v>
+        <v>17.28614489082632</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>34.00768409269585</v>
+        <v>40.99484402736992</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>34.00768409269585</v>
+        <v>46.71352563288245</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>34.00768409269585</v>
+        <v>16.4589813244795</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.00768409269585</v>
+        <v>40.58366240664803</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>34.00768409269585</v>
+        <v>46.45148273736275</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>34.00768409269585</v>
+        <v>25.37607598046144</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>34.00768409269585</v>
+        <v>52.89508873253122</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>34.00768409269585</v>
+        <v>59.25313986126592</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>34.00768409269585</v>
+        <v>58.18383472211063</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>34.00768409269585</v>
+        <v>65.31405397128798</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>34.00768409269585</v>
+        <v>70.65834430283313</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>34.00768409269585</v>
+        <v>28.79355139956589</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>34.00768409269585</v>
+        <v>59.89791634917036</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>34.00768409269585</v>
+        <v>67.57478957412023</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>34.00768409269585</v>
+        <v>10.40917272577109</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>34.00768409269585</v>
+        <v>34.10774793763686</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>34.00768409269585</v>
+        <v>39.82147451848117</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>34.00768409269585</v>
+        <v>9.581960830573269</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>34.00768409269585</v>
+        <v>33.69705594284368</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>34.00768409269585</v>
+        <v>39.55935519413877</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>34.00768409269585</v>
+        <v>18.49167605908734</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.00768409269585</v>
+        <v>46.00046952826152</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>34.00768409269585</v>
+        <v>52.35343523298091</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>34.00768409269585</v>
+        <v>51.27575840634073</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>34.00768409269585</v>
+        <v>58.40302534684996</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>34.00768409269585</v>
+        <v>63.74292321930248</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>34.00768409269585</v>
+        <v>21.89246974386525</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>34.00768409269585</v>
+        <v>52.9808719918327</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>34.00768409269585</v>
+        <v>60.6544188099633</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>34.00768409269585</v>
+        <v>14.02654358668461</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>34.00768409269585</v>
+        <v>37.73136278952516</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>34.00768409269585</v>
+        <v>43.45038158171882</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>34.00768409269585</v>
+        <v>13.19217015759203</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>34.00768409269585</v>
+        <v>37.31180597072078</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>34.00768409269585</v>
+        <v>43.18058955397281</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>34.00768409269585</v>
+        <v>22.10650450061108</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>34.00768409269585</v>
+        <v>49.6218252275654</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>34.00768409269585</v>
+        <v>55.98026273158733</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>34.00768409269585</v>
+        <v>54.89862193848874</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>34.00768409269585</v>
+        <v>62.02798286113351</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>34.00768409269585</v>
+        <v>67.3717239873581</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>34.00768409269585</v>
+        <v>25.51445138943324</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>34.00768409269585</v>
+        <v>56.61388542861947</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>34.00768409269585</v>
+        <v>64.28998815036856</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>34.00768409269585</v>
+        <v>27.55734538982084</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>34.00768409269585</v>
+        <v>51.26750213287583</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.00768409269585</v>
+        <v>56.9859852335246</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>34.00768409269585</v>
+        <v>26.73132352299398</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>34.00768409269585</v>
+        <v>50.85759389489884</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>34.00768409269585</v>
+        <v>56.72524574569194</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>34.00768409269585</v>
+        <v>35.64937548055819</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>34.00768409269585</v>
+        <v>63.16990463328237</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>34.00768409269585</v>
+        <v>69.5277469780775</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>34.00768409269585</v>
+        <v>68.45853034367904</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>34.00768409269585</v>
+        <v>75.58908338178615</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>34.00768409269585</v>
+        <v>80.93315806755707</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>34.00768409269585</v>
+        <v>39.06622237356201</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>34.00768409269585</v>
+        <v>70.17206274434589</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>34.00768409269585</v>
+        <v>77.84876494543595</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>34.00768409269585</v>
+        <v>11.301173978243</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>34.00768409269585</v>
+        <v>34.9991000206346</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>34.00768409269585</v>
+        <v>40.71154322274946</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>34.00768409269585</v>
+        <v>10.47413713117543</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>34.00768409269585</v>
+        <v>34.58859650474118</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>34.00768409269585</v>
+        <v>40.44949111614709</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>34.00768409269585</v>
+        <v>19.38379438761375</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>34.00768409269585</v>
+        <v>46.89155748625261</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>34.00768409269585</v>
+        <v>53.2431336277434</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>34.00768409269585</v>
+        <v>52.16583135002178</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>34.00768409269585</v>
+        <v>59.29323282960557</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>34.00768409269585</v>
+        <v>64.6314794311961</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>34.00768409269585</v>
+        <v>22.78316107414877</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>34.00768409269585</v>
+        <v>53.87064748252543</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>34.00768409269585</v>
+        <v>61.54265300387668</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>34.00768409269585</v>
+        <v>14.91915262641668</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>34.00768409269585</v>
+        <v>38.62332210504427</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>34.00768409269585</v>
+        <v>44.34105668032656</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>34.00768409269585</v>
+        <v>14.08495453291708</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>34.00768409269585</v>
+        <v>38.20395430003383</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>34.00768409269585</v>
+        <v>44.0713323240477</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>34.00768409269585</v>
+        <v>22.99923084084275</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>34.00768409269585</v>
+        <v>50.51352059172631</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>34.00768409269585</v>
+        <v>56.87056765532996</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>34.00768409269585</v>
+        <v>55.78930202485388</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>34.00768409269585</v>
+        <v>62.91879738550004</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>34.00768409269585</v>
+        <v>68.26088662844448</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>34.00768409269585</v>
+        <v>26.40575029708724</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>34.00768409269585</v>
+        <v>57.50426753706971</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>34.00768409269585</v>
+        <v>65.17882858991753</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>34.00768409269585</v>
+        <v>28.44930530771727</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>34.00768409269585</v>
+        <v>52.15881181495443</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>34.00768409269585</v>
+        <v>57.87601060123744</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>34.00768409269585</v>
+        <v>27.62345802140316</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>34.00768409269585</v>
+        <v>51.74909166969063</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>34.00768409269585</v>
+        <v>57.61533792270278</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>34.00768409269585</v>
+        <v>36.54145156300579</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>34.00768409269585</v>
+        <v>64.06094923236502</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>34.00768409269585</v>
+        <v>70.41740103945766</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>34.00768409269585</v>
+        <v>69.3485580079881</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>34.00768409269585</v>
+        <v>76.47924543098053</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>34.00768409269585</v>
+        <v>81.82166797770502</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>34.00768409269585</v>
+        <v>39.95686972870202</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>34.00768409269585</v>
+        <v>71.06179275694727</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>34.00768409269585</v>
+        <v>78.73695306510227</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>34.00768409269585</v>
+        <v>-2.595838041828994</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>34.00768409269585</v>
+        <v>21.09949122952002</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>34.00768409269585</v>
+        <v>26.81269924868524</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>34.00768409269585</v>
+        <v>-3.423857549725891</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>34.00768409269585</v>
+        <v>20.68782584174845</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>34.00768409269585</v>
+        <v>26.54942054273646</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>34.00768409269585</v>
+        <v>5.484172358134391</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>34.00768409269585</v>
+        <v>32.98927855409555</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>34.00768409269585</v>
+        <v>39.34166811476028</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>34.00768409269585</v>
+        <v>38.26468516433191</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>34.00768409269585</v>
+        <v>45.39123948933137</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.00768409269585</v>
+        <v>50.7297323711566</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>34.00768409269585</v>
+        <v>8.885099463746986</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>34.00768409269585</v>
+        <v>39.96975683463334</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>34.00768409269585</v>
+        <v>47.64244525976572</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>34.00768409269585</v>
+        <v>1.026127575130875</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>34.00768409269585</v>
+        <v>24.72770052486702</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>34.00768409269585</v>
+        <v>30.44620046891372</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>34.00768409269585</v>
+        <v>0.1909478251496814</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>34.00768409269585</v>
+        <v>24.30717176582595</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>34.00768409269585</v>
+        <v>30.17525048270067</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>34.00768409269585</v>
+        <v>9.103596867365003</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>34.00768409269585</v>
+        <v>36.61522998219469</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>34.00768409269585</v>
+        <v>42.9730910207554</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>34.00768409269585</v>
+        <v>41.89214401494063</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>34.00768409269585</v>
+        <v>49.02079222792189</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>34.00768409269585</v>
+        <v>54.36312792081479</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>34.00768409269585</v>
+        <v>12.51167602366421</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>34.00768409269585</v>
+        <v>43.60736440626896</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>34.00768409269585</v>
+        <v>51.28260871032488</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>34.00768409269585</v>
+        <v>14.5603570921454</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>34.00768409269585</v>
+        <v>38.26726733346969</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.00768409269585</v>
+        <v>43.98523144993599</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>34.00768409269585</v>
+        <v>13.73352802950011</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>34.00768409269585</v>
+        <v>37.85638617617313</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>34.00768409269585</v>
+        <v>43.72333313457374</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>34.00768409269585</v>
+        <v>22.64989459772766</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>34.00768409269585</v>
+        <v>50.16673590851802</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>34.00768409269585</v>
+        <v>56.52400164247545</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>34.00768409269585</v>
+        <v>55.45547703949067</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>34.00768409269585</v>
+        <v>62.58531739224928</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>34.00768409269585</v>
+        <v>67.92798649134953</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>34.00768409269585</v>
+        <v>26.06687231639329</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>34.00768409269585</v>
+        <v>57.1689667065874</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>34.00768409269585</v>
+        <v>64.84481031050846</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>34.00768409269585</v>
+        <v>-6.722553626931482</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>34.00768409269585</v>
+        <v>16.97508964699738</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>34.00768409269585</v>
+        <v>22.68908558932252</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>34.00768409269585</v>
+        <v>-7.550639865952245</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>34.00768409269585</v>
+        <v>16.56342917607798</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>34.00768409269585</v>
+        <v>22.42594505081796</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>34.00768409269585</v>
+        <v>1.357854872545307</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>34.00768409269585</v>
+        <v>28.86567375755691</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>34.00768409269585</v>
+        <v>35.21892929923841</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>34.00768409269585</v>
+        <v>34.14154516342909</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>34.00768409269585</v>
+        <v>41.26868955924509</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>34.00768409269585</v>
+        <v>46.60880115364601</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>34.00768409269585</v>
+        <v>4.759211357809239</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>34.00768409269585</v>
+        <v>35.84678546116116</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>34.00768409269585</v>
+        <v>43.52050142336655</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>34.00768409269585</v>
+        <v>-3.108911388205126</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>34.00768409269585</v>
+        <v>20.59497577577848</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>34.00768409269585</v>
+        <v>26.31426403025215</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>34.00768409269585</v>
+        <v>-3.94415922470672</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>34.00768409269585</v>
+        <v>20.17445040112942</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>34.00768409269585</v>
+        <v>26.04345069783448</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>34.00768409269585</v>
+        <v>4.968954486891551</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>34.00768409269585</v>
+        <v>32.48330053018252</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>34.00768409269585</v>
+        <v>38.84202797211172</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>34.00768409269585</v>
+        <v>37.76067998880318</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>34.00768409269585</v>
+        <v>44.88991836811111</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>34.00768409269585</v>
+        <v>50.23387326252485</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>34.00768409269585</v>
+        <v>8.377464280375751</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>34.00768409269585</v>
+        <v>39.47607004788277</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>34.00768409269585</v>
+        <v>47.15234200917142</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>34.00768409269585</v>
+        <v>10.42382156319046</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.00768409269585</v>
+        <v>34.13304635456471</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>34.00768409269585</v>
+        <v>39.85179900403203</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>34.00768409269585</v>
+        <v>9.596925273119712</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>34.00768409269585</v>
+        <v>33.72216954857389</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>34.00768409269585</v>
+        <v>39.5900382123575</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>34.00768409269585</v>
+        <v>18.51375669871912</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>34.00768409269585</v>
+        <v>46.03331125384805</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>34.00768409269585</v>
+        <v>52.39144362736373</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>34.00768409269585</v>
+        <v>51.32251944668768</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>34.00768409269585</v>
+        <v>58.45294999071722</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>34.00768409269585</v>
+        <v>63.79723850919605</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>34.00768409269585</v>
+        <v>21.93116624697779</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>34.00768409269585</v>
+        <v>53.03617842716186</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>34.00768409269585</v>
+        <v>60.71304991188798</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>34.00768409269585</v>
+        <v>11.42167804803499</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>34.00768409269585</v>
+        <v>35.12049607539562</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>34.00768409269585</v>
+        <v>40.83362228253621</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>34.00768409269585</v>
+        <v>10.59581408360031</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>34.00768409269585</v>
+        <v>34.71134757295634</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>34.00768409269585</v>
+        <v>40.57277970319181</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>34.00768409269585</v>
+        <v>19.50555893772649</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>34.00768409269585</v>
+        <v>47.01435210014334</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>34.00768409269585</v>
+        <v>53.36664456067068</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>34.00768409269585</v>
+        <v>52.28937079821718</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>34.00768409269585</v>
+        <v>59.41715008895379</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>34.00768409269585</v>
+        <v>64.75528277290151</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>34.00768409269585</v>
+        <v>22.90590627390258</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>34.00768409269585</v>
+        <v>53.99468395872996</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>34.00768409269585</v>
+        <v>61.66740619990274</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>34.00768409269585</v>
+        <v>15.03053843072722</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.00768409269585</v>
+        <v>38.73559997180756</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>34.00768409269585</v>
+        <v>44.45401781315671</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>34.00768409269585</v>
+        <v>14.19751235262867</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>34.00768409269585</v>
+        <v>38.31758623389474</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>34.00768409269585</v>
+        <v>44.18550210660395</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>34.00768409269585</v>
+        <v>23.11187589043219</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>34.00768409269585</v>
+        <v>50.62719578708946</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>34.00768409269585</v>
+        <v>56.98495944355305</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>34.00768409269585</v>
+        <v>55.9037224909781</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>34.00768409269585</v>
+        <v>63.03359562868262</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>34.00768409269585</v>
+        <v>68.37557110029285</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>34.00768409269585</v>
+        <v>26.51937671068764</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>34.00768409269585</v>
+        <v>57.61918535176891</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>34.00768409269585</v>
+        <v>65.29446320192629</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>34.00768409269585</v>
+        <v>28.56312351326504</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>34.00768409269585</v>
+        <v>52.27352237171907</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>34.00768409269585</v>
+        <v>57.99140442228496</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>34.00768409269585</v>
+        <v>27.73844889258679</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>34.00768409269585</v>
+        <v>51.8651570097113</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>34.00768409269585</v>
+        <v>57.73194113540488</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>34.00768409269585</v>
+        <v>36.65652987256713</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>34.00768409269585</v>
+        <v>64.17705797471341</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>34.00768409269585</v>
+        <v>70.53422636330946</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>34.00768409269585</v>
+        <v>69.46541226940222</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>34.00768409269585</v>
+        <v>76.59647762730729</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>34.00768409269585</v>
+        <v>81.93878641837033</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>34.00768409269585</v>
+        <v>40.07292954038108</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>34.00768409269585</v>
+        <v>71.17914435912938</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>34.00768409269585</v>
+        <v>78.85502149661907</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>34.00768409269585</v>
+        <v>-9.141477622610079</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>34.00768409269585</v>
+        <v>14.55308776180151</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>34.00768409269585</v>
+        <v>20.26682808492386</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>34.00768409269585</v>
+        <v>-9.970834765773599</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>34.00768409269585</v>
+        <v>14.13973234268405</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>34.00768409269585</v>
+        <v>20.00194625574681</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>34.00768409269585</v>
+        <v>-1.063645269348296</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>34.00768409269585</v>
+        <v>26.44067248903831</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>34.00768409269585</v>
+        <v>32.79363737640936</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>34.00768409269585</v>
+        <v>31.71540287941786</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>34.00768409269585</v>
+        <v>38.8418685960613</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>34.00768409269585</v>
+        <v>44.18097519233127</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>34.00768409269585</v>
+        <v>2.335972911345824</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>34.00768409269585</v>
+        <v>33.4199978700194</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>34.00768409269585</v>
+        <v>41.09331871573202</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>34.00768409269585</v>
+        <v>-5.526761884170707</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>34.00768409269585</v>
+        <v>18.17404692346632</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>34.00768409269585</v>
+        <v>23.89307932960581</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>34.00768409269585</v>
+        <v>-6.363279609855464</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>34.00768409269585</v>
+        <v>17.75182775671782</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>34.00768409269585</v>
+        <v>23.62052579710165</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>34.00768409269585</v>
+        <v>2.548528768631503</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>34.00768409269585</v>
+        <v>30.05937319325993</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>34.00768409269585</v>
+        <v>36.41780973133994</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>34.00768409269585</v>
+        <v>35.33561133970987</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>34.00768409269585</v>
+        <v>42.46417086889868</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>34.00768409269585</v>
+        <v>47.80712031417032</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>34.00768409269585</v>
+        <v>5.955299330783067</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>34.00768409269585</v>
+        <v>37.05035492175521</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>34.00768409269585</v>
+        <v>44.72623192774334</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>34.00768409269585</v>
+        <v>8.009117685034642</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>34.00768409269585</v>
+        <v>31.71526378239786</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>34.00768409269585</v>
+        <v>37.43376046048864</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>34.00768409269585</v>
+        <v>7.180950390023771</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>34.00768409269585</v>
+        <v>31.30269200827341</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>34.00768409269585</v>
+        <v>37.17025837677009</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>34.00768409269585</v>
+        <v>16.09647646789323</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>34.00768409269585</v>
+        <v>43.61252905938623</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.00768409269585</v>
+        <v>49.97037039485529</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>34.00768409269585</v>
+        <v>48.90059431300516</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>34.00768409269585</v>
+        <v>56.03034607061828</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>34.00768409269585</v>
+        <v>61.37362912224397</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>34.00768409269585</v>
+        <v>19.51214568765521</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>34.00768409269585</v>
+        <v>50.61360725841881</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>34.00768409269585</v>
+        <v>58.29008365909372</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>34.00768409269585</v>
+        <v>3.32963134405485</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>34.00768409269585</v>
+        <v>27.02718608046779</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>34.00768409269585</v>
+        <v>32.74002423213413</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>34.00768409269585</v>
+        <v>2.501066320758458</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>34.00768409269585</v>
+        <v>26.61480678986333</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>34.00768409269585</v>
+        <v>32.47605307982302</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>34.00768409269585</v>
+        <v>11.41017795955371</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>34.00768409269585</v>
+        <v>38.91776753210137</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>34.00768409269585</v>
+        <v>45.26980978875552</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>34.00768409269585</v>
+        <v>44.1925322042059</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>34.00768409269585</v>
+        <v>51.31972658619064</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>34.00768409269585</v>
+        <v>56.6582155590588</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>34.00768409269585</v>
+        <v>14.80936457524045</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>34.00768409269585</v>
+        <v>45.89703360350323</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>34.00768409269585</v>
+        <v>53.56935449739716</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>34.00768409269585</v>
+        <v>6.947128894431433</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>34.00768409269585</v>
+        <v>30.6509272832984</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>34.00768409269585</v>
+        <v>36.36905722495861</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>34.00768409269585</v>
+        <v>6.11140260621686</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.00768409269585</v>
+        <v>30.2296835950135</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>34.00768409269585</v>
+        <v>36.09741373481414</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>34.00768409269585</v>
+        <v>15.02513357427232</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>34.00768409269585</v>
+        <v>42.53925006157077</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>34.00768409269585</v>
+        <v>48.89676367095375</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>34.00768409269585</v>
+        <v>47.81552260553677</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>34.00768409269585</v>
+        <v>54.94481077807505</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>34.00768409269585</v>
+        <v>60.28714256118279</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>34.00768409269585</v>
+        <v>18.43147319810361</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>34.00768409269585</v>
+        <v>49.53017329624718</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>34.00768409269585</v>
+        <v>57.20505006552877</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>34.00768409269585</v>
+        <v>20.48202702341961</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>34.00768409269585</v>
+        <v>44.19116289101827</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>34.00768409269585</v>
+        <v>49.90875711725242</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>34.00768409269585</v>
+        <v>19.65465154735169</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>34.00768409269585</v>
+        <v>43.77956701183096</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>34.00768409269585</v>
+        <v>49.64616547811805</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>34.00768409269585</v>
+        <v>28.57210032031923</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>34.00768409269585</v>
+        <v>56.09142515009385</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>34.00768409269585</v>
+        <v>62.44834356954424</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>34.00768409269585</v>
+        <v>61.37952522630268</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>34.00768409269585</v>
+        <v>68.51000572379438</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>34.00768409269585</v>
+        <v>73.85267097693064</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>34.00768409269585</v>
+        <v>31.98733878139273</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>34.00768409269585</v>
+        <v>63.09244517233752</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>34.00768409269585</v>
+        <v>70.767921331019</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>34.00768409269585</v>
+        <v>-9.393270634921475</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>34.00768409269585</v>
+        <v>14.30222143331411</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>34.00768409269585</v>
+        <v>20.01561241712101</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>34.00768409269585</v>
+        <v>-10.22331403063562</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>34.00768409269585</v>
+        <v>13.88821010316325</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>34.00768409269585</v>
+        <v>19.75001885175242</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>34.00768409269585</v>
+        <v>-1.315497745446816</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>34.00768409269585</v>
+        <v>26.18999113335632</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>34.00768409269585</v>
+        <v>32.54258694055692</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>34.00768409269585</v>
+        <v>31.46493345516636</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>34.00768409269585</v>
+        <v>38.5917023046254</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>34.00768409269585</v>
+        <v>43.93033848050776</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>34.00768409269585</v>
+        <v>2.084236319299851</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>34.00768409269585</v>
+        <v>33.16944080202141</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>34.00768409269585</v>
+        <v>40.84230236602706</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>34.00768409269585</v>
+        <v>-5.783417799414234</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>34.00768409269585</v>
+        <v>17.91831770141208</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>34.00768409269585</v>
+        <v>23.63700078056648</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>34.00768409269585</v>
+        <v>-6.620622585583885</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>34.00768409269585</v>
+        <v>17.49544180929398</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>34.00768409269585</v>
+        <v>23.36373474174774</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>34.00768409269585</v>
+        <v>2.29181253429191</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>34.00768409269585</v>
+        <v>29.80382808960416</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>34.00768409269585</v>
+        <v>36.16189556570883</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>34.00768409269585</v>
+        <v>35.0802787821592</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>34.00768409269585</v>
+        <v>42.20914145464074</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>34.00768409269585</v>
+        <v>47.55162052095214</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>34.00768409269585</v>
+        <v>5.698699957814927</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>34.00768409269585</v>
+        <v>36.79493533240075</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>34.00768409269585</v>
+        <v>44.47035294383021</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>34.00768409269585</v>
+        <v>7.755000569026482</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>34.00768409269585</v>
+        <v>31.46207367713474</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>34.00768409269585</v>
+        <v>37.18022088786732</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>34.00768409269585</v>
+        <v>6.926146576106238</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>34.00768409269585</v>
+        <v>31.04884559233686</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>34.00768409269585</v>
+        <v>36.91600670950537</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>34.00768409269585</v>
+        <v>15.8422997226903</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>34.00768409269585</v>
+        <v>43.3595237640079</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>34.00768409269585</v>
+        <v>49.7169958924005</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>34.00768409269585</v>
+        <v>48.64780175926613</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>34.00768409269585</v>
+        <v>55.77785672145079</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>34.00768409269585</v>
+        <v>61.12066923991175</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>34.00768409269585</v>
+        <v>19.25808576863004</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>34.00768409269585</v>
+        <v>50.36072747307729</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>34.00768409269585</v>
+        <v>58.03674436169079</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>34.00768409269585</v>
+        <v>-16.24785863529656</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>34.00768409269585</v>
+        <v>7.446101839813981</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>34.00768409269585</v>
+        <v>13.15894322678377</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>34.00768409269585</v>
+        <v>-17.07902812740668</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>34.00768409269585</v>
+        <v>7.030866820494101</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>34.00768409269585</v>
+        <v>12.89210242745957</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>34.00768409269585</v>
+        <v>-8.172026733841914</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>34.00768409269585</v>
+        <v>19.3317779119784</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>34.00768409269585</v>
+        <v>25.6838184501646</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>34.00768409269585</v>
+        <v>24.6065659340902</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>34.00768409269585</v>
+        <v>31.73290019279147</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>34.00768409269585</v>
+        <v>37.07136245534979</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>34.00768409269585</v>
+        <v>-4.772376540117659</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>34.00768409269585</v>
+        <v>26.31092025902625</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>34.00768409269585</v>
+        <v>33.98323208228565</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>34.00768409269585</v>
+        <v>-12.63640289689171</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>34.00768409269585</v>
+        <v>11.06380077656398</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>34.00768409269585</v>
+        <v>16.78193400288091</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>34.00768409269585</v>
+        <v>-13.47473341655303</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>34.00768409269585</v>
+        <v>10.63970160509676</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>34.00768409269585</v>
+        <v>16.50742106796587</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>34.00768409269585</v>
+        <v>-4.563113260689089</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>34.00768409269585</v>
+        <v>22.94721783281283</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>34.00768409269585</v>
+        <v>29.30472977979797</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>34.00768409269585</v>
+        <v>28.22351412039676</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>34.00768409269585</v>
+        <v>35.35194212840098</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>34.00768409269585</v>
+        <v>40.69424712751014</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>34.00768409269585</v>
+        <v>-1.156310112262087</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>34.00768409269585</v>
+        <v>29.93801711147613</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>34.00768409269585</v>
+        <v>37.61288488073636</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>34.00768409269585</v>
+        <v>0.9015878237372483</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>34.00768409269585</v>
+        <v>24.60712889134162</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>34.00768409269585</v>
+        <v>30.32472636833835</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>34.00768409269585</v>
+        <v>0.07160760827081347</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>34.00768409269585</v>
+        <v>24.1926770030991</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>34.00768409269585</v>
+        <v>30.0592647829967</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>34.00768409269585</v>
+        <v>8.98694574396551</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>34.00768409269585</v>
+        <v>36.50248511102846</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>34.00768409269585</v>
+        <v>42.85940183476485</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>34.00768409269585</v>
+        <v>41.79060826789417</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>34.00768409269585</v>
+        <v>48.92022851579394</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>34.00768409269585</v>
+        <v>54.26286697846375</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>34.00768409269585</v>
+        <v>12.4026471910165</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>34.00768409269585</v>
+        <v>43.50338042871998</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>34.00768409269585</v>
+        <v>51.17884751505856</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>34.00768409269585</v>
+        <v>1.73236401155474</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>34.00768409269585</v>
+        <v>25.42986285935114</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>34.00768409269585</v>
+        <v>31.14394086604533</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>34.00768409269585</v>
+        <v>0.9038348037797626</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>34.00768409269585</v>
+        <v>25.01770679599393</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>34.00768409269585</v>
+        <v>30.88030485363196</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>34.00768409269585</v>
+        <v>9.813046948420254</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>34.00768409269585</v>
+        <v>37.32075226676749</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>34.00768409269585</v>
+        <v>43.67408079359437</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>34.00768409269585</v>
+        <v>42.59635414187663</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>34.00768409269585</v>
+        <v>49.72347593133235</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>34.00768409269585</v>
+        <v>55.06332736637818</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>34.00768409269585</v>
+        <v>13.21439113779967</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>34.00768409269585</v>
+        <v>44.30179781359617</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>34.00768409269585</v>
+        <v>51.97563130445404</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>34.00768409269585</v>
+        <v>5.344357729292131</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>34.00768409269585</v>
+        <v>29.04810051167214</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>34.00768409269585</v>
+        <v>34.76747090242314</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>34.00768409269585</v>
+        <v>4.508666801491007</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>34.00768409269585</v>
+        <v>28.62707938938</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>34.00768409269585</v>
+        <v>34.49616198162219</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>34.00768409269585</v>
+        <v>13.42249774183709</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>34.00768409269585</v>
+        <v>40.93673025978022</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>34.00768409269585</v>
+        <v>47.29553076236105</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>34.00768409269585</v>
+        <v>46.21384022560015</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>34.00768409269585</v>
+        <v>53.34305601538072</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>34.00768409269585</v>
+        <v>58.68675069653578</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>34.00768409269585</v>
+        <v>16.83099524170324</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>34.00768409269585</v>
+        <v>47.92943363585708</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>34.00768409269585</v>
+        <v>55.60582312681321</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>34.00768409269585</v>
+        <v>18.87849052196372</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>34.00768409269585</v>
+        <v>42.58757101892944</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>34.00768409269585</v>
+        <v>48.30640566105761</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>34.00768409269585</v>
+        <v>18.0511512261878</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>34.00768409269585</v>
+        <v>42.17619858661486</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>34.00768409269585</v>
+        <v>48.04414939514685</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>34.00768409269585</v>
+        <v>26.96870001902925</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>34.00768409269585</v>
+        <v>54.48814113895945</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>34.00768409269585</v>
+        <v>60.84634642498121</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>34.00768409269585</v>
+        <v>59.77707997363255</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>34.00768409269585</v>
+        <v>66.90748789563678</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>34.00768409269585</v>
+        <v>72.25151620094026</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>34.00768409269585</v>
+        <v>30.38609741857055</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>34.00768409269585</v>
+        <v>61.49094226207204</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>34.00768409269585</v>
+        <v>69.16793119948987</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>34.00768409269585</v>
+        <v>3.849933290886032</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>34.00768409269585</v>
+        <v>27.54702713288872</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>34.00768409269585</v>
+        <v>33.26048156884075</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>34.00768409269585</v>
+        <v>3.021743547625864</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>34.00768409269585</v>
+        <v>27.13496433407976</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>34.00768409269585</v>
+        <v>32.99680758102703</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>34.00768409269585</v>
+        <v>11.93044844972961</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>34.00768409269585</v>
+        <v>39.43752075487451</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>34.00768409269585</v>
+        <v>45.79021377399202</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>34.00768409269585</v>
+        <v>44.7121833479158</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>34.00768409269585</v>
+        <v>51.83941272192793</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>34.00768409269585</v>
+        <v>57.17804888017234</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>34.00768409269585</v>
+        <v>15.32945657107529</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>34.00768409269585</v>
+        <v>46.41669452789073</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>34.00768409269585</v>
+        <v>54.08978405861374</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>34.00768409269585</v>
+        <v>7.457566002809688</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.00768409269585</v>
+        <v>31.16090331930649</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>34.00768409269585</v>
+        <v>36.87964977660862</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>34.00768409269585</v>
+        <v>6.622214527216659</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>34.00768409269585</v>
+        <v>30.73997558804273</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>34.00768409269585</v>
+        <v>36.60830293193634</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>34.00768409269585</v>
+        <v>15.53553811188123</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>34.00768409269585</v>
+        <v>43.04913714363794</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>34.00768409269585</v>
+        <v>49.40730176092801</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.00768409269585</v>
+        <v>48.32530792719909</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>34.00768409269585</v>
+        <v>55.45463116090706</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>34.00768409269585</v>
+        <v>60.79711015686563</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>34.00768409269585</v>
+        <v>18.94169955039921</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.00768409269585</v>
+        <v>50.03996843173364</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>34.00768409269585</v>
+        <v>57.71561400979691</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>34.00768409269585</v>
+        <v>20.99304409975797</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>34.00768409269585</v>
+        <v>44.70171893266182</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>34.00768409269585</v>
+        <v>50.41992963693222</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.00768409269585</v>
+        <v>20.16604345584107</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>34.00768409269585</v>
+        <v>44.29043904192564</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>34.00768409269585</v>
+        <v>50.15763470507225</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>34.00768409269585</v>
+        <v>29.08308488093302</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>34.00768409269585</v>
+        <v>56.60189228949478</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>34.00768409269585</v>
+        <v>62.95946167295914</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>34.00768409269585</v>
+        <v>61.88989065998349</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>34.00768409269585</v>
+        <v>69.02040620499325</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>34.00768409269585</v>
+        <v>74.3632187446825</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>34.00768409269585</v>
+        <v>32.49814527690181</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.00768409269585</v>
+        <v>63.60282042437676</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>34.00768409269585</v>
+        <v>71.27906536947363</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>34.00768409269585</v>
+        <v>8.516694369006235</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>34.00768409269585</v>
+        <v>32.21624603422082</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>34.00768409269585</v>
+        <v>37.93037361314326</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>34.00768409269585</v>
+        <v>7.690106007667385</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>34.00768409269585</v>
+        <v>31.80627613556691</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>34.00768409269585</v>
+        <v>37.66888469185641</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>34.00768409269585</v>
+        <v>16.59993192957039</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>34.00768409269585</v>
+        <v>44.10977928802616</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>34.00768409269585</v>
+        <v>50.46316757166709</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.00768409269585</v>
+        <v>49.38545325756773</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>34.00768409269585</v>
+        <v>56.51312604231053</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>34.00768409269585</v>
+        <v>61.85301604700281</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>34.00768409269585</v>
+        <v>20.00103545133515</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>34.00768409269585</v>
+        <v>51.09092240499648</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>34.00768409269585</v>
+        <v>58.76492522329396</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>34.00768409269585</v>
+        <v>12.12995513825057</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>34.00768409269585</v>
+        <v>35.83575098508184</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>34.00768409269585</v>
+        <v>41.55517093377101</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>34.00768409269585</v>
+        <v>11.29620469431153</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>34.00768409269585</v>
+        <v>35.4169156649467</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>34.00768409269585</v>
+        <v>41.28600876069025</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>34.00768409269585</v>
+        <v>20.21064962256797</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>34.00768409269585</v>
+        <v>47.72702442593287</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>34.00768409269585</v>
+        <v>54.08588467462617</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>34.00768409269585</v>
+        <v>53.00420634568694</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>34.00768409269585</v>
+        <v>60.13397322396848</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>34.00768409269585</v>
+        <v>65.477706579838</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>34.00768409269585</v>
+        <v>23.61890667564522</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>34.00768409269585</v>
+        <v>54.71982576284096</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>34.00768409269585</v>
+        <v>62.39638455949738</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>34.00768409269585</v>
+        <v>25.66189729206234</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>34.00768409269585</v>
+        <v>49.37303083541973</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>34.00768409269585</v>
+        <v>55.09191503125565</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>34.00768409269585</v>
+        <v>24.83649883962561</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>34.00768409269585</v>
+        <v>48.96384456985741</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>34.00768409269585</v>
+        <v>54.83180586200568</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>34.00768409269585</v>
+        <v>33.75466148670488</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>34.00768409269585</v>
+        <v>61.27624486697754</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>34.00768409269585</v>
+        <v>67.63450989385591</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>34.00768409269585</v>
+        <v>66.56525606191131</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>34.00768409269585</v>
+        <v>73.69621509318391</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>34.00768409269585</v>
+        <v>79.04028195128454</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>34.00768409269585</v>
+        <v>37.171818727934</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>34.00768409269585</v>
+        <v>68.27914431751832</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>34.00768409269585</v>
+        <v>75.95630254965236</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>34.00768409269585</v>
+        <v>7.386890138633806</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>34.00768409269585</v>
+        <v>31.08441442441471</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.00768409269585</v>
+        <v>36.79847272666323</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>34.00768409269585</v>
+        <v>6.560331960258953</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>34.00768409269585</v>
+        <v>30.67433992078917</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>34.00768409269585</v>
+        <v>36.53694429274877</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>34.00768409269585</v>
+        <v>15.4690402625606</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>34.00768409269585</v>
+        <v>42.976744937411</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>34.00768409269585</v>
+        <v>49.3300373361178</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>34.00768409269585</v>
+        <v>48.25199450452043</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>34.00768409269585</v>
+        <v>55.3788411617919</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>34.00768409269585</v>
+        <v>60.71897716606428</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.00768409269585</v>
+        <v>18.86971090107533</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>34.00768409269585</v>
+        <v>49.95695989583201</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>34.00768409269585</v>
+        <v>57.63087265930822</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>34.00768409269585</v>
+        <v>11.00129346881385</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>34.00768409269585</v>
+        <v>34.70506161905585</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>34.00768409269585</v>
+        <v>40.42441221450257</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>34.00768409269585</v>
+        <v>10.16757389764722</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>34.00768409269585</v>
+        <v>34.28612239984942</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>34.00768409269585</v>
+        <v>40.15521119546564</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>34.00768409269585</v>
+        <v>19.08090084560682</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>34.00768409269585</v>
+        <v>46.59513265849374</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>34.00768409269585</v>
+        <v>52.95389694050276</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>34.00768409269585</v>
+        <v>51.87189003866909</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>34.00768409269585</v>
+        <v>59.00083069539481</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>34.00768409269585</v>
+        <v>64.34480996039109</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>34.00768409269585</v>
+        <v>22.48872458022412</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>34.00768409269585</v>
+        <v>53.58700515080874</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>34.00768409269585</v>
+        <v>61.26347385088205</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>34.00768409269585</v>
+        <v>24.53267301421066</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>34.00768409269585</v>
+        <v>48.24177865927014</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>34.00768409269585</v>
+        <v>53.96059354209727</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>34.00768409269585</v>
+        <v>23.70730497526312</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>34.00768409269585</v>
+        <v>47.83248799881481</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>34.00768409269585</v>
+        <v>53.70044503841153</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>34.00768409269585</v>
+        <v>32.62434954037904</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>34.00768409269585</v>
+        <v>60.14378973445126</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>34.00768409269585</v>
+        <v>66.5019588401493</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>34.00768409269585</v>
+        <v>65.43237610715879</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>34.00768409269585</v>
+        <v>72.56250879973264</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>34.00768409269585</v>
+        <v>77.90682164455767</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>34.00768409269585</v>
+        <v>36.04107320429397</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>34.00768409269585</v>
+        <v>67.14576002059754</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>34.00768409269585</v>
+        <v>74.8228281909138</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>34.00768409269585</v>
+        <v>4.368553149038565</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>34.00768409269585</v>
+        <v>28.06755216587577</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>34.00768409269585</v>
+        <v>33.78140962006408</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.00768409269585</v>
+        <v>3.5411130483668</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>34.00768409269585</v>
+        <v>27.65640302999588</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>34.00768409269585</v>
+        <v>33.51867774960191</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>34.00768409269585</v>
+        <v>12.45043205748913</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>34.00768409269585</v>
+        <v>39.95964242053502</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>34.00768409269585</v>
+        <v>46.31276405846255</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>34.00768409269585</v>
+        <v>45.23496440077086</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>34.00768409269585</v>
+        <v>52.36260708015742</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>34.00768409269585</v>
+        <v>57.7019078988619</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>34.00768409269585</v>
+        <v>15.85012566455804</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>34.00768409269585</v>
+        <v>46.93974102993535</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>34.00768409269585</v>
+        <v>54.61331102870371</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>34.00768409269585</v>
+        <v>7.976992265294815</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>34.00768409269585</v>
+        <v>31.68223518361025</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>34.00768409269585</v>
+        <v>37.40138492527602</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>34.00768409269585</v>
+        <v>7.142390054726196</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>34.00768409269585</v>
+        <v>31.262220638676</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>34.00768409269585</v>
+        <v>37.13097978048721</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>34.00768409269585</v>
+        <v>16.05632788265028</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>34.00768409269585</v>
+        <v>43.57206541400249</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>34.00768409269585</v>
+        <v>49.93065892493676</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>34.00768409269585</v>
+        <v>48.84889555132291</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>34.00768409269585</v>
+        <v>55.97863216351867</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>34.00768409269585</v>
+        <v>61.32177608830658</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>34.00768409269585</v>
+        <v>19.46317518546163</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>34.00768409269585</v>
+        <v>50.56382215241693</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>34.00768409269585</v>
+        <v>58.23994825178225</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>34.00768409269585</v>
+        <v>21.51121202328988</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>34.00768409269585</v>
+        <v>45.22179267556508</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>34.00768409269585</v>
+        <v>50.94040670303956</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>34.00768409269585</v>
+        <v>20.68496130547407</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>34.00768409269585</v>
+        <v>44.81142670077917</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>34.00768409269585</v>
+        <v>50.6790541401799</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>34.00768409269585</v>
+        <v>29.60261702896092</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>34.00768409269585</v>
+        <v>57.12356315034582</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>34.00768409269585</v>
+        <v>63.48156146785071</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>34.00768409269585</v>
+        <v>62.41222192296719</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>34.00768409269585</v>
+        <v>69.5431508663264</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>34.00768409269585</v>
+        <v>74.88662838248466</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>34.00768409269585</v>
+        <v>33.01836413137492</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>34.00768409269585</v>
+        <v>64.12541765733532</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.00768409269585</v>
+        <v>71.80214323638039</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>34.00768409269585</v>
+        <v>-3.599568708409048</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>34.00768409269585</v>
+        <v>20.09627961689749</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>34.00768409269585</v>
+        <v>25.81000964412486</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>34.00768409269585</v>
+        <v>-4.428195919522306</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>34.00768409269585</v>
+        <v>19.68404172068493</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>34.00768409269585</v>
+        <v>25.54623436921564</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>34.00768409269585</v>
+        <v>4.480102531206729</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>34.00768409269585</v>
+        <v>31.98585948553908</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>34.00768409269585</v>
+        <v>38.33882938228406</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>34.00768409269585</v>
+        <v>37.26081249421939</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>34.00768409269585</v>
+        <v>44.38732120193662</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>34.00768409269585</v>
+        <v>49.72698970802638</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>34.00768409269585</v>
+        <v>7.880701537388621</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>34.00768409269585</v>
+        <v>38.96595183360249</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>34.00768409269585</v>
+        <v>46.63950551781885</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>34.00768409269585</v>
+        <v>0.01983835327597561</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>34.00768409269585</v>
+        <v>23.72193041181605</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>34.00768409269585</v>
+        <v>29.44095274117352</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>34.00768409269585</v>
+        <v>-0.8159492617381936</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>34.00768409269585</v>
+        <v>23.30082889997231</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>34.00768409269585</v>
+        <v>29.16950593146224</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>34.00768409269585</v>
+        <v>8.09696814414723</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>34.00768409269585</v>
+        <v>35.60925206851651</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>34.00768409269585</v>
+        <v>41.96769385163383</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>34.00768409269585</v>
+        <v>40.88571289115474</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>34.00768409269585</v>
+        <v>48.01431550908931</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>34.00768409269585</v>
+        <v>53.35782707041879</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>34.00768409269585</v>
+        <v>11.50471951012547</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>34.00768409269585</v>
+        <v>42.60100115274973</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>34.00768409269585</v>
+        <v>50.27711093942706</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>34.00768409269585</v>
+        <v>13.55235046751863</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.00768409269585</v>
+        <v>37.25977988440808</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>34.00768409269585</v>
+        <v>42.97826651131457</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>34.00768409269585</v>
+        <v>12.72491367009592</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>34.00768409269585</v>
+        <v>36.84832616885909</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>34.00768409269585</v>
+        <v>42.71587149509854</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>34.00768409269585</v>
+        <v>21.64154858936682</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>34.00768409269585</v>
+        <v>49.15904077104152</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>34.00768409269585</v>
+        <v>55.51688738461961</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>34.00768409269585</v>
+        <v>54.44732951891454</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>34.00768409269585</v>
+        <v>61.5771241933778</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>34.00768409269585</v>
+        <v>66.92096940313603</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>34.00768409269585</v>
+        <v>25.05819917776931</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>34.00768409269585</v>
+        <v>56.16088682822372</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>34.00768409269585</v>
+        <v>63.83759611776723</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>34.00768409269585</v>
+        <v>4.058716292443126</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>34.00768409269585</v>
+        <v>27.75594854874281</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>34.00768409269585</v>
+        <v>33.47013308769941</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>34.00768409269585</v>
+        <v>3.231733662716909</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>34.00768409269585</v>
+        <v>27.34542836679372</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>34.00768409269585</v>
+        <v>33.20818033632803</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>34.00768409269585</v>
+        <v>12.14029462952373</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.00768409269585</v>
+        <v>39.64768150607584</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>34.00768409269585</v>
+        <v>46.00110193816475</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>34.00768409269585</v>
+        <v>44.92306301950133</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>34.00768409269585</v>
+        <v>52.04984401902242</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>34.00768409269585</v>
+        <v>57.39006811539228</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>34.00768409269585</v>
+        <v>15.54116040770986</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>34.00768409269585</v>
+        <v>46.6280979382402</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>34.00768409269585</v>
+        <v>54.30212207343946</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>34.00768409269585</v>
+        <v>7.673037706052913</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>34.00768409269585</v>
+        <v>31.37651382818591</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>34.00768409269585</v>
+        <v>37.09599072847571</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>34.00768409269585</v>
+        <v>6.838893760913255</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>34.00768409269585</v>
+        <v>30.9571290082598</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>34.00768409269585</v>
+        <v>36.8263654788136</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>34.00768409269585</v>
+        <v>15.75207336622099</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>34.00768409269585</v>
+        <v>43.26598737840787</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>34.00768409269585</v>
+        <v>49.62487976162741</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>34.00768409269585</v>
+        <v>48.54287671231894</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>34.00768409269585</v>
+        <v>55.67175171951247</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>34.00768409269585</v>
+        <v>61.01581910536525</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>34.00768409269585</v>
+        <v>19.16009215604184</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>34.00768409269585</v>
+        <v>50.2580612676188</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>34.00768409269585</v>
+        <v>57.93464141023001</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>34.00768409269585</v>
+        <v>21.20452507625031</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>34.00768409269585</v>
+        <v>44.91333868993023</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>34.00768409269585</v>
+        <v>50.63227987203116</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>34.00768409269585</v>
+        <v>20.37873259039133</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>34.00768409269585</v>
+        <v>44.50360235857737</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>34.00768409269585</v>
+        <v>50.37170706607161</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>34.00768409269585</v>
+        <v>29.29562982355195</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>34.00768409269585</v>
+        <v>56.81475221502784</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>34.00768409269585</v>
+        <v>63.17304941705935</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>34.00768409269585</v>
+        <v>62.10347049986784</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>34.00768409269585</v>
+        <v>69.23353753490856</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>34.00768409269585</v>
+        <v>74.57793851247469</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>34.00768409269585</v>
+        <v>32.71254853052061</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>34.00768409269585</v>
+        <v>63.81692386194889</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>34.00768409269585</v>
+        <v>71.49410347279364</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>34.00768409269585</v>
+        <v>8.174998641109131</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>34.00768409269585</v>
+        <v>31.87218939031208</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>34.00768409269585</v>
+        <v>37.58554312724935</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>34.00768409269585</v>
+        <v>7.348073931678744</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>34.00768409269585</v>
+        <v>31.4618177046891</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>34.00768409269585</v>
+        <v>37.32351178344082</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>34.00768409269585</v>
+        <v>16.25713405170108</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>34.00768409269585</v>
+        <v>43.76435373797879</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>34.00768409269585</v>
+        <v>50.11690573052987</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>34.00768409269585</v>
+        <v>49.0392932642478</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>34.00768409269585</v>
+        <v>56.16606616114971</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>34.00768409269585</v>
+        <v>61.5050106046176</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>34.00768409269585</v>
+        <v>19.6572064212172</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>34.00768409269585</v>
+        <v>50.74384018190368</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>34.00768409269585</v>
+        <v>58.41699985363117</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>34.00768409269585</v>
+        <v>11.786125850468</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>34.00768409269585</v>
+        <v>35.48956012584163</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>34.00768409269585</v>
+        <v>41.20820579207201</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>34.00768409269585</v>
+        <v>10.9520395341143</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>34.00768409269585</v>
+        <v>35.07032362623646</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>34.00768409269585</v>
+        <v>40.93850174910629</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>34.00768409269585</v>
+        <v>19.86571829361036</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>34.00768409269585</v>
+        <v>47.37946476627165</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>34.00768409269585</v>
+        <v>53.73748825641222</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>34.00768409269585</v>
+        <v>52.65591230723815</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>34.00768409269585</v>
+        <v>59.78477902167252</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>34.00768409269585</v>
+        <v>65.12756635806328</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>34.00768409269585</v>
+        <v>23.27294389267773</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>34.00768409269585</v>
+        <v>54.37060859441554</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>34.00768409269585</v>
+        <v>62.04632395996849</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>34.00768409269585</v>
+        <v>25.31794771077556</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>34.00768409269585</v>
+        <v>49.02671936419095</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>34.00768409269585</v>
+        <v>54.74482923145455</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>34.00768409269585</v>
+        <v>24.49221257694022</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>34.00768409269585</v>
+        <v>48.61713102450754</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>34.00768409269585</v>
+        <v>54.48417736635837</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>34.00768409269585</v>
+        <v>33.40960884682282</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>34.00768409269585</v>
+        <v>60.92856358185894</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>34.00768409269585</v>
+        <v>67.28599180237244</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>34.00768409269585</v>
+        <v>66.21683914916467</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>34.00768409269585</v>
+        <v>73.34689793693575</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>34.00768409269585</v>
+        <v>78.69001871364627</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>34.00768409269585</v>
+        <v>36.82573359178205</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>34.00768409269585</v>
+        <v>67.92980451020433</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>34.00768409269585</v>
+        <v>75.60611918173809</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>34.00768409269585</v>
+        <v>4.947581652264592</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>34.00768409269585</v>
+        <v>28.64651955945111</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>34.00768409269585</v>
+        <v>34.36041076741274</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>34.00768409269585</v>
+        <v>4.120413207951277</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>34.00768409269585</v>
+        <v>28.23569234472255</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>34.00768409269585</v>
+        <v>34.09797094588315</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>34.00768409269585</v>
+        <v>13.02968285384985</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>34.00768409269585</v>
+        <v>40.53880015865569</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>34.00768409269585</v>
+        <v>46.89195440840557</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>34.00768409269585</v>
+        <v>45.8141054865789</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>34.00768409269585</v>
+        <v>52.9416290238705</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>34.00768409269585</v>
+        <v>58.28105875652669</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>34.00768409269585</v>
+        <v>16.42937410096055</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>34.00768409269585</v>
+        <v>47.51880623456098</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>34.00768409269585</v>
+        <v>55.19243490118491</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>34.00768409269585</v>
+        <v>8.555899250551068</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.00768409269585</v>
+        <v>32.2610809975407</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>34.00768409269585</v>
+        <v>37.98026446809557</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>34.00768409269585</v>
+        <v>7.721568701386548</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>34.00768409269585</v>
+        <v>31.84138838705825</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>34.00768409269585</v>
+        <v>37.71015138045981</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>34.00768409269585</v>
+        <v>16.63545709422418</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>34.00768409269585</v>
+        <v>44.15110150400595</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>34.00768409269585</v>
+        <v>50.50972760022954</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>34.00768409269585</v>
+        <v>49.42791495782829</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>34.00768409269585</v>
+        <v>56.55753239125077</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>34.00768409269585</v>
+        <v>61.90080525136362</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>34.00768409269585</v>
+        <v>20.04230195968363</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>34.00768409269585</v>
+        <v>51.14276560374297</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>34.00768409269585</v>
+        <v>58.81895034889259</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>34.00768409269585</v>
+        <v>22.08915892878723</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>34.00768409269585</v>
+        <v>45.7996783228965</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>34.00768409269585</v>
+        <v>51.51832610965106</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>34.00768409269585</v>
+        <v>21.26317978465157</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>34.00768409269585</v>
+        <v>45.38963418198931</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>34.00768409269585</v>
+        <v>51.25726549527961</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>34.00768409269585</v>
+        <v>30.18078599161275</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>34.00768409269585</v>
+        <v>57.70163890676268</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>34.00768409269585</v>
+        <v>64.05966984342614</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>34.00768409269585</v>
+        <v>62.99028098635459</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>34.00768409269585</v>
+        <v>70.12109071365579</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>34.00768409269585</v>
+        <v>75.46469715635486</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>34.00768409269585</v>
+        <v>33.59653063099812</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>34.00768409269585</v>
+        <v>64.70340071143401</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>34.00768409269585</v>
+        <v>72.38018497523477</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.408921463278705</v>
+        <v>1.408921463274613</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.10667714128487</v>
+        <v>25.10667714131784</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.82089055330629</v>
+        <v>30.82089055329537</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.5812498719910657</v>
+        <v>0.5812498719756043</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.69548331176246</v>
+        <v>24.69548331169152</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30.55821187814262</v>
+        <v>30.55821187808805</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9.49020322644866</v>
+        <v>9.490203226467077</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>36.99814700670969</v>
+        <v>36.99814700672106</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>43.35162967667223</v>
+        <v>43.35162967666518</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>42.27389941217972</v>
+        <v>42.27389941219791</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>49.40097400060937</v>
+        <v>49.40097400057503</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>54.74115276808469</v>
+        <v>54.74115276806877</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.89159777146243</v>
+        <v>12.89159777146493</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>43.97929913156246</v>
+        <v>43.97929913160111</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>51.65336959644991</v>
+        <v>51.65336959643194</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.026729159292348</v>
+        <v>5.026729159305535</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.7307290088662</v>
+        <v>28.73072900888279</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.45023490214588</v>
+        <v>34.45023490214406</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.191896261330829</v>
+        <v>4.191896261405862</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.31067053482319</v>
+        <v>28.31067053481773</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>34.17988372975013</v>
+        <v>34.17988372972148</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>13.10546871570147</v>
+        <v>13.10546871570363</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>40.6199399367657</v>
+        <v>40.61993993672671</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>46.97889468262996</v>
+        <v>46.97889468260881</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>45.89720010510699</v>
+        <v>45.89720010513655</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>53.02636876446444</v>
+        <v>53.02636876450718</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>58.37039089167909</v>
+        <v>58.37039089169012</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>16.51401619270415</v>
+        <v>16.51401619271154</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>47.61274959075068</v>
+        <v>47.6127495907608</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>55.28937614902269</v>
+        <v>55.28937614906111</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>18.55927977954649</v>
+        <v>18.55927977947237</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>42.26861726697813</v>
+        <v>42.2686172670186</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>47.98758741777418</v>
+        <v>47.98758741775417</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>17.73279850324069</v>
+        <v>17.73279850321159</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.85820747387969</v>
+        <v>41.85820747386877</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>47.72628888195253</v>
+        <v>47.72628888194343</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>26.65008868659639</v>
+        <v>26.65008868658048</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>54.16976843343478</v>
+        <v>54.16976843341295</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>60.52812797000284</v>
+        <v>60.5281279699028</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>59.45885763313821</v>
+        <v>59.45885763313275</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>66.58921840258652</v>
+        <v>66.58921840266838</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>71.93357409043891</v>
+        <v>71.93357409043527</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.06753619959123</v>
+        <v>30.06753619958942</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>61.17267597454644</v>
+        <v>61.17267597456645</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>68.84990198644253</v>
+        <v>68.84990198646072</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>7.088949232946778</v>
+        <v>7.088949232937001</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.78788875567124</v>
+        <v>30.78788875569147</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>36.50138218214009</v>
+        <v>36.50138218215601</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.261439604491432</v>
+        <v>6.261439604502346</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30.37667253895664</v>
+        <v>30.3766725389712</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.23856302580974</v>
+        <v>36.23856302583339</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>15.17098824507956</v>
+        <v>15.17098824509991</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>42.68006026755459</v>
+        <v>42.68006026756744</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>49.03278799046051</v>
+        <v>49.03278799046755</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>47.95493738369258</v>
+        <v>47.95493738365506</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>55.08277279214188</v>
+        <v>55.08277279213165</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>60.42131649452186</v>
+        <v>60.42131649454267</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>18.57035572228823</v>
+        <v>18.57035572233905</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>49.65982170195728</v>
+        <v>49.65982170193534</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>57.33295909444676</v>
+        <v>57.33295909445029</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10.69724930161123</v>
+        <v>10.69724930157507</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.40243254078221</v>
+        <v>34.4024325408477</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>40.12121799738632</v>
+        <v>40.12121799740474</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>9.862577496246093</v>
+        <v>9.862577496313737</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>33.98235093347169</v>
+        <v>33.98235093349818</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>39.85072556914677</v>
+        <v>39.85072556918747</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>18.77674509549751</v>
+        <v>18.77674509555765</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>46.29234407920806</v>
+        <v>46.29234407914724</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>52.65054341278231</v>
+        <v>52.65054341273866</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>51.56872944138716</v>
+        <v>51.5687294413509</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>58.69865883159706</v>
+        <v>58.69865883155704</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>64.0410455069533</v>
+        <v>64.04104550694568</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>22.18326634177446</v>
+        <v>22.18326634176195</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>53.28376370707086</v>
+        <v>53.2837637071127</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>60.95945706621522</v>
+        <v>60.95945706627707</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>24.2324785209422</v>
+        <v>24.23247852088956</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>47.9429994072094</v>
+        <v>47.94299940721997</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>53.66124907943184</v>
+        <v>53.66124907944616</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>23.40615811017914</v>
+        <v>23.40615811012104</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>47.53256621681111</v>
+        <v>47.53256621674005</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>53.39980910328721</v>
+        <v>53.39980910326857</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>32.32404356813571</v>
+        <v>32.32404356809944</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>59.84485106329531</v>
+        <v>59.84485106327325</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>66.20245513024052</v>
+        <v>66.20245513022222</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>65.13306441592486</v>
+        <v>65.13306441594862</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>72.26418612360929</v>
+        <v>72.26418612357166</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>77.60690625489029</v>
+        <v>77.60690625486744</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>35.73946401576551</v>
+        <v>35.73946401580734</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>66.84636783557993</v>
+        <v>66.84636783560903</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>74.52266054709013</v>
+        <v>74.52266054710013</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>7.915365010839526</v>
+        <v>7.915365010832478</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31.61414116341131</v>
+        <v>31.61414116344814</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>37.32734978714096</v>
+        <v>37.32734978716665</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>7.087707636578319</v>
+        <v>7.087707636569679</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>31.20283989160918</v>
+        <v>31.20283989159781</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>37.06436404207396</v>
+        <v>37.06436404206964</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.99736633433178</v>
+        <v>15.99736633435088</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>43.50630741537871</v>
+        <v>43.50630741537348</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>49.85874816248564</v>
+        <v>49.85874816248791</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>48.78132465956979</v>
+        <v>48.78132465951045</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>55.90897025175501</v>
+        <v>55.90897025170612</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>61.24745435650844</v>
+        <v>61.24745435649616</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>19.39689054837014</v>
+        <v>19.39689054838481</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>50.48610277341423</v>
+        <v>50.4861027733957</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>58.15886101876707</v>
+        <v>58.15886101874524</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>11.5275882880511</v>
+        <v>11.52758828809316</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>35.23260822677013</v>
+        <v>35.23260822682492</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>40.95110887317263</v>
+        <v>40.95110887318422</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>10.69276897368592</v>
+        <v>10.69276897370809</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>34.81244181084399</v>
+        <v>34.81244181078954</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>40.68045011555681</v>
+        <v>40.68045011560751</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>19.60704685640427</v>
+        <v>19.60704685644076</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>47.12251498598322</v>
+        <v>47.12251498595423</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>53.4804273244208</v>
+        <v>53.48042732441353</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>52.39904035967128</v>
+        <v>52.3990403596657</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>59.52877979764081</v>
+        <v>59.52877979768071</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>64.87110685645426</v>
+        <v>64.87110685647791</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>23.01372461774564</v>
+        <v>23.01372461773927</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>54.11396821783715</v>
+        <v>54.11396821787831</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>61.78928244270024</v>
+        <v>61.78928244271502</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>25.06314787472353</v>
+        <v>25.06314787465589</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>48.77350549008894</v>
+        <v>48.77350549009837</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>54.4914703752497</v>
+        <v>54.49147037528404</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>24.23667986715826</v>
+        <v>24.23667986713098</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>48.36298742466623</v>
+        <v>48.36298742464986</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>54.2298640019353</v>
+        <v>54.22986400196986</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>33.15467564480626</v>
+        <v>33.15467564481536</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>60.67535231378882</v>
+        <v>60.6753523138343</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>67.03266941101445</v>
+        <v>67.03266941103082</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>65.96370559606497</v>
+        <v>65.96370559609407</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>73.09463740458988</v>
+        <v>73.09463740461159</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>78.43729791714121</v>
+        <v>78.43729791713393</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>36.57025249983984</v>
+        <v>36.57025249983268</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>67.67690264459735</v>
+        <v>67.67690264462281</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>75.35281625188746</v>
+        <v>75.35281625189144</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.137067508519511</v>
+        <v>0.1370675085193973</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>23.83418507411715</v>
+        <v>23.8341850741134</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.54811001349366</v>
+        <v>29.54811001349912</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-0.6912860609163651</v>
+        <v>-0.6912860609467195</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>23.42221972255765</v>
+        <v>23.42221972256072</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.28468730635176</v>
+        <v>29.28468730634176</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>8.217471840213296</v>
+        <v>8.217471840206816</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>35.7247488631093</v>
+        <v>35.72474886311646</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>42.07792319550298</v>
+        <v>42.07792319552594</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>41.00015821673365</v>
+        <v>41.00015821674968</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>48.12709135038686</v>
+        <v>48.12709135038038</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>53.46720480687553</v>
+        <v>53.46720480684756</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>11.61889455333266</v>
+        <v>11.61889455337256</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>42.70582148671336</v>
+        <v>42.70582148669119</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>50.37953922501764</v>
+        <v>50.379539225004</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>3.753441303823468</v>
+        <v>3.753441303818125</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>27.45680285275727</v>
+        <v>27.45680285275806</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>33.17602019447735</v>
+        <v>33.17602019447166</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2.917926382284794</v>
+        <v>2.917926382281156</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>27.03597283732846</v>
+        <v>27.03597283731937</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>32.90492494497424</v>
+        <v>32.90492494498515</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>11.83130325111334</v>
+        <v>11.83130325105775</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>39.34510752615698</v>
+        <v>39.34510752616414</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>45.7037538538559</v>
+        <v>45.70375385386659</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>44.62202468340932</v>
+        <v>44.62202468339829</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>51.75105184297557</v>
+        <v>51.75105184297364</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>57.09500860852255</v>
+        <v>57.09500860851527</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>15.23987878397383</v>
+        <v>15.23987878401566</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>46.33783743726779</v>
+        <v>46.33783743730963</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>54.01411122557828</v>
+        <v>54.01411122554735</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>17.28614489082632</v>
+        <v>17.28614489082166</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>40.99484402736992</v>
+        <v>40.99484402733502</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>46.71352563288245</v>
+        <v>46.71352563291724</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>16.4589813244795</v>
+        <v>16.45898132445051</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>40.58366240664803</v>
+        <v>40.58366240664246</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>46.45148273736275</v>
+        <v>46.45148273737139</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>25.37607598046144</v>
+        <v>25.37607598041005</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>52.89508873253122</v>
+        <v>52.89508873254145</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>59.25313986126592</v>
+        <v>59.25313986127922</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>58.18383472211063</v>
+        <v>58.18383472210267</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>65.31405397128798</v>
+        <v>65.3140539712433</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>70.65834430283313</v>
+        <v>70.65834430282949</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.79355139956589</v>
+        <v>28.79355139954668</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>59.89791634917036</v>
+        <v>59.89791634919162</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>67.57478957412023</v>
+        <v>67.57478957407976</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>10.40917272577109</v>
+        <v>10.40917272581975</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>34.10774793763686</v>
+        <v>34.10774793768074</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>39.82147451848117</v>
+        <v>39.82147451850663</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>9.581960830573269</v>
+        <v>9.581960830597826</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>33.69705594284368</v>
+        <v>33.69705594284186</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>39.55935519413877</v>
+        <v>39.55935519415333</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>18.49167605908734</v>
+        <v>18.49167605915305</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>46.00046952826152</v>
+        <v>46.00046952824015</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>52.35343523298091</v>
+        <v>52.35343523299206</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>51.27575840634073</v>
+        <v>51.27575840632072</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>58.40302534684996</v>
+        <v>58.40302534680096</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>63.74292321930248</v>
+        <v>63.74292321932602</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>21.89246974386525</v>
+        <v>21.89246974382955</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>52.9808719918327</v>
+        <v>52.98087199183497</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>60.6544188099633</v>
+        <v>60.65441880998161</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>14.02654358668461</v>
+        <v>14.02654358663959</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>37.73136278952516</v>
+        <v>37.73136278950174</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>43.45038158171882</v>
+        <v>43.45038158164787</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>13.19217015759203</v>
+        <v>13.19217015763069</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>37.31180597072078</v>
+        <v>37.31180597073715</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>43.18058955397281</v>
+        <v>43.18058955398782</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>22.10650450061108</v>
+        <v>22.1065045006278</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>49.6218252275654</v>
+        <v>49.62182522753004</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>55.98026273158733</v>
+        <v>55.980262731548</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>54.89862193848874</v>
+        <v>54.89862193843827</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>62.02798286113351</v>
+        <v>62.02798286111998</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>67.3717239873581</v>
+        <v>67.37172398734002</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>25.51445138943324</v>
+        <v>25.51445138945882</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>56.61388542861947</v>
+        <v>56.61388542862606</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>64.28998815036856</v>
+        <v>64.28998815039618</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>27.55734538982084</v>
+        <v>27.55734538976855</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>51.26750213287583</v>
+        <v>51.26750213286537</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>56.9859852335246</v>
+        <v>56.98598523352688</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>26.73132352299398</v>
+        <v>26.73132352301581</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>50.85759389489884</v>
+        <v>50.85759389494977</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>56.72524574569194</v>
+        <v>56.72524574579198</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>35.64937548055819</v>
+        <v>35.64937548052409</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>63.16990463328237</v>
+        <v>63.16990463328965</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>69.5277469780775</v>
+        <v>69.52774697807568</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>68.45853034367904</v>
+        <v>68.45853034366813</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>75.58908338178615</v>
+        <v>75.58908338180616</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>80.93315806755707</v>
+        <v>80.93315806754616</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>39.06622237356201</v>
+        <v>39.06622237356019</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>70.17206274434589</v>
+        <v>70.17206274434044</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>77.84876494543595</v>
+        <v>77.84876494545414</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>11.301173978243</v>
+        <v>11.30117397825153</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>34.9991000206346</v>
+        <v>34.9991000206379</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>40.71154322274946</v>
+        <v>40.71154322273308</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>10.47413713117543</v>
+        <v>10.47413713119873</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>34.58859650474118</v>
+        <v>34.58859650473924</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>40.44949111614709</v>
+        <v>40.4494911161771</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>19.38379438761375</v>
+        <v>19.3837943875701</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>46.89155748625261</v>
+        <v>46.89155748626716</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>53.2431336277434</v>
+        <v>53.24313362777615</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>52.16583135002178</v>
+        <v>52.16583135003974</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>59.29323282960557</v>
+        <v>59.29323282962206</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>64.6314794311961</v>
+        <v>64.63147943119485</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>22.78316107414877</v>
+        <v>22.78316107421073</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>53.87064748252543</v>
+        <v>53.87064748248098</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>61.54265300387668</v>
+        <v>61.54265300387588</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>14.91915262641668</v>
+        <v>14.91915262635824</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>38.62332210504427</v>
+        <v>38.62332210507087</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>44.34105668032656</v>
+        <v>44.34105668033361</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>14.08495453291708</v>
+        <v>14.08495453289162</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>38.20395430003383</v>
+        <v>38.20395430001382</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>44.0713323240477</v>
+        <v>44.07133232403451</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>22.99923084084275</v>
+        <v>22.99923084078079</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>50.51352059172631</v>
+        <v>50.51352059169709</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>56.87056765532996</v>
+        <v>56.87056765526232</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>55.78930202485388</v>
+        <v>55.78930202486286</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>62.91879738550004</v>
+        <v>62.91879738553085</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>68.26088662844448</v>
+        <v>68.26088662842447</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>26.40575029708724</v>
+        <v>26.40575029709952</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>57.50426753706971</v>
+        <v>57.50426753708574</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>65.17882858991753</v>
+        <v>65.17882858989286</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.44930530771727</v>
+        <v>28.44930530772</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>52.15881181495443</v>
+        <v>52.15881181493465</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>57.87601060123744</v>
+        <v>57.87601060123619</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>27.62345802140316</v>
+        <v>27.62345802137974</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>51.74909166969063</v>
+        <v>51.74909166965061</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>57.61533792270278</v>
+        <v>57.61533792268095</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>36.54145156300579</v>
+        <v>36.54145156290154</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>64.06094923236502</v>
+        <v>64.06094923229635</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>70.41740103945766</v>
+        <v>70.41740103938842</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>69.3485580079881</v>
+        <v>69.34855800800209</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>76.47924543098053</v>
+        <v>76.47924543102384</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>81.82166797770502</v>
+        <v>81.8216679777115</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>39.95686972870202</v>
+        <v>39.95686972872555</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>71.06179275694727</v>
+        <v>71.06179275696171</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>78.73695306510227</v>
+        <v>78.73695306512592</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-2.595838041828994</v>
+        <v>-2.595838041820468</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>21.09949122952002</v>
+        <v>21.09949122953786</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>26.81269924868524</v>
+        <v>26.81269924867978</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-3.423857549725891</v>
+        <v>-3.423857549753517</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>20.68782584174845</v>
+        <v>20.68782584171742</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>26.54942054273646</v>
+        <v>26.54942054270827</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>5.484172358134391</v>
+        <v>5.484172358138029</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>32.98927855409555</v>
+        <v>32.98927855410646</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>39.34166811476028</v>
+        <v>39.34166811473482</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>38.26468516433191</v>
+        <v>38.26468516436806</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>45.39123948933137</v>
+        <v>45.39123948931159</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>50.7297323711566</v>
+        <v>50.72973237112636</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>8.885099463746986</v>
+        <v>8.88509946371072</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>39.96975683463334</v>
+        <v>39.96975683463619</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>47.64244525976572</v>
+        <v>47.64244525976504</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1.026127575130875</v>
+        <v>1.026127575066983</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.72770052486702</v>
+        <v>24.72770052486816</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>30.44620046891372</v>
+        <v>30.44620046891349</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>0.1909478251496814</v>
+        <v>0.1909478250441801</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>24.30717176582595</v>
+        <v>24.30717176571499</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>30.17525048270067</v>
+        <v>30.17525048271294</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9.103596867365003</v>
+        <v>9.103596867323052</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>36.61522998219469</v>
+        <v>36.61522998213273</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>42.9730910207554</v>
+        <v>42.97309102072425</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>41.89214401494063</v>
+        <v>41.89214401488049</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>49.02079222792189</v>
+        <v>49.02079222788721</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>54.36312792081479</v>
+        <v>54.36312792079114</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>12.51167602366421</v>
+        <v>12.51167602362192</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>43.60736440626896</v>
+        <v>43.60736440625236</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>51.28260871032488</v>
+        <v>51.28260871035125</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>14.5603570921454</v>
+        <v>14.56035709214813</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>38.26726733346969</v>
+        <v>38.26726733347901</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>43.98523144993599</v>
+        <v>43.98523144993509</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>13.73352802950011</v>
+        <v>13.73352802947305</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>37.85638617617313</v>
+        <v>37.85638617616949</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>43.72333313457374</v>
+        <v>43.72333313449893</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>22.64989459772766</v>
+        <v>22.64989459765433</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>50.16673590851802</v>
+        <v>50.16673590852768</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>56.52400164247545</v>
+        <v>56.52400164248262</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>55.45547703949067</v>
+        <v>55.455477039505</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>62.58531739224928</v>
+        <v>62.58531739225258</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>67.92798649134953</v>
+        <v>67.92798649133441</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>26.06687231639329</v>
+        <v>26.06687231638226</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>57.1689667065874</v>
+        <v>57.1689667065982</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>64.84481031050846</v>
+        <v>64.84481031053211</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-6.722553626931482</v>
+        <v>-6.722553626989576</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>16.97508964699738</v>
+        <v>16.97508964692473</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>22.68908558932252</v>
+        <v>22.68908558927636</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-7.550639865952245</v>
+        <v>-7.550639865952359</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>16.56342917607798</v>
+        <v>16.56342917607423</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>22.42594505081796</v>
+        <v>22.42594505076794</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>1.357854872545307</v>
+        <v>1.357854872535416</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.86567375755691</v>
+        <v>28.86567375754975</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>35.21892929923841</v>
+        <v>35.2189292992657</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>34.14154516342909</v>
+        <v>34.14154516342192</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>41.26868955924509</v>
+        <v>41.26868955923042</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>46.60880115364601</v>
+        <v>46.60880115365852</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>4.759211357809239</v>
+        <v>4.759211357804919</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>35.84678546116116</v>
+        <v>35.84678546118322</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>43.52050142336655</v>
+        <v>43.52050142336678</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-3.108911388205126</v>
+        <v>-3.108911388265039</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>20.59497577577848</v>
+        <v>20.59497577576586</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>26.31426403025215</v>
+        <v>26.31426403024328</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-3.94415922470672</v>
+        <v>-3.944159224783572</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>20.17445040112942</v>
+        <v>20.17445040104893</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>26.04345069783448</v>
+        <v>26.04345069782538</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>4.968954486891551</v>
+        <v>4.968954486835276</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>32.48330053018252</v>
+        <v>32.48330053021355</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>38.84202797211172</v>
+        <v>38.84202797211354</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>37.76067998880318</v>
+        <v>37.76067998879931</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>44.88991836811111</v>
+        <v>44.88991836812589</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>50.23387326252485</v>
+        <v>50.23387326253986</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>8.377464280375751</v>
+        <v>8.37746428027889</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>39.47607004788277</v>
+        <v>39.47607004778114</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>47.15234200917142</v>
+        <v>47.15234200912094</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>10.42382156319046</v>
+        <v>10.42382156322309</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.13304635456471</v>
+        <v>34.13304635452776</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>39.85179900403203</v>
+        <v>39.85179900406477</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>9.596925273119712</v>
+        <v>9.596925273032173</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>33.72216954857389</v>
+        <v>33.7221695485582</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>39.5900382123575</v>
+        <v>39.59003821232726</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>18.51375669871912</v>
+        <v>18.51375669875494</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>46.03331125384805</v>
+        <v>46.03331125390388</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>52.39144362736373</v>
+        <v>52.39144362741398</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>51.32251944668768</v>
+        <v>51.3225194467003</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>58.45294999071722</v>
+        <v>58.45294999065344</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>63.79723850919605</v>
+        <v>63.79723850916695</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>21.93116624697779</v>
+        <v>21.93116624702394</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>53.03617842716186</v>
+        <v>53.0361784271564</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>60.71304991188798</v>
+        <v>60.71304991183159</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>11.42167804803499</v>
+        <v>11.42167804799498</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>35.12049607539562</v>
+        <v>35.12049607531195</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>40.83362228253621</v>
+        <v>40.83362228253439</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>10.59581408360031</v>
+        <v>10.5958140835662</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>34.71134757295634</v>
+        <v>34.7113475729402</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>40.57277970319181</v>
+        <v>40.57277970318636</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>19.50555893772649</v>
+        <v>19.50555893775401</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>47.01435210014334</v>
+        <v>47.01435210018199</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>53.36664456067068</v>
+        <v>53.36664456069819</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>52.28937079821718</v>
+        <v>52.28937079832086</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>59.41715008895379</v>
+        <v>59.41715008897255</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>64.75528277290151</v>
+        <v>64.75528277288548</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>22.90590627390258</v>
+        <v>22.90590627393418</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>53.99468395872996</v>
+        <v>53.99468395876134</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>61.66740619990274</v>
+        <v>61.66740619995606</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>15.03053843072722</v>
+        <v>15.03053843074735</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>38.73559997180756</v>
+        <v>38.73559997182404</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>44.45401781315671</v>
+        <v>44.4540178130769</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>14.19751235262867</v>
+        <v>14.19751235262969</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>38.31758623389474</v>
+        <v>38.31758623391305</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>44.18550210660395</v>
+        <v>44.1855021065421</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>23.11187589043219</v>
+        <v>23.11187589037785</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>50.62719578708946</v>
+        <v>50.6271957870424</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>56.98495944355305</v>
+        <v>56.98495944352042</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>55.9037224909781</v>
+        <v>55.90372249104801</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>63.03359562868262</v>
+        <v>63.03359562866011</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>68.37557110029285</v>
+        <v>68.37557110030524</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>26.51937671068764</v>
+        <v>26.51937671066263</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>57.61918535176891</v>
+        <v>57.61918535176027</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>65.29446320192629</v>
+        <v>65.29446320183602</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>28.56312351326504</v>
+        <v>28.56312351320149</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>52.27352237171907</v>
+        <v>52.27352237169372</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>57.99140442228496</v>
+        <v>57.99140442227234</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>27.73844889258679</v>
+        <v>27.73844889252461</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>51.8651570097113</v>
+        <v>51.86515700967799</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>57.73194113540488</v>
+        <v>57.73194113540727</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>36.65652987256713</v>
+        <v>36.65652987257521</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>64.17705797471341</v>
+        <v>64.17705797470784</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>70.53422636330946</v>
+        <v>70.53422636327467</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>69.46541226940222</v>
+        <v>69.46541226942075</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>76.59647762730729</v>
+        <v>76.59647762729126</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>81.93878641837033</v>
+        <v>81.9387864184141</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>40.07292954038108</v>
+        <v>40.07292954036824</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>71.17914435912938</v>
+        <v>71.17914435910232</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>78.85502149661907</v>
+        <v>78.85502149658872</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-9.141477622610079</v>
+        <v>-9.14147762263293</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>14.55308776180151</v>
+        <v>14.55308776178866</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>20.26682808492386</v>
+        <v>20.26682808491249</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-9.970834765773599</v>
+        <v>-9.970834765788265</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>14.13973234268405</v>
+        <v>14.1397323426712</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>20.00194625574681</v>
+        <v>20.00194625571747</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-1.063645269348296</v>
+        <v>-1.063645269359437</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>26.44067248903831</v>
+        <v>26.44067248900557</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>32.79363737640936</v>
+        <v>32.79363737640595</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>31.71540287941786</v>
+        <v>31.7154028794141</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>38.8418685960613</v>
+        <v>38.8418685960048</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>44.18097519233127</v>
+        <v>44.18097519232582</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>2.335972911345824</v>
+        <v>2.335972911323996</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>33.4199978700194</v>
+        <v>33.41999787003395</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>41.09331871573202</v>
+        <v>41.09331871567586</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-5.526761884170707</v>
+        <v>-5.526761884195718</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>18.17404692346632</v>
+        <v>18.1740469234229</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>23.89307932960581</v>
+        <v>23.89307932956398</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-6.363279609855464</v>
+        <v>-6.363279609877406</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>17.75182775671782</v>
+        <v>17.75182775665222</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.62052579710165</v>
+        <v>23.62052579697046</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>2.548528768631503</v>
+        <v>2.54852876861354</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>30.05937319325993</v>
+        <v>30.05937319327449</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>36.41780973133994</v>
+        <v>36.41780973136882</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>35.33561133970987</v>
+        <v>35.33561133967872</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>42.46417086889868</v>
+        <v>42.46417086888049</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>47.80712031417032</v>
+        <v>47.80712031417418</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>5.955299330783067</v>
+        <v>5.955299330714968</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>37.05035492175521</v>
+        <v>37.05035492174169</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>44.72623192774334</v>
+        <v>44.72623192769264</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>8.009117685034642</v>
+        <v>8.009117684997353</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>31.71526378239786</v>
+        <v>31.71526378241241</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>37.43376046048864</v>
+        <v>37.43376046048409</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>7.180950390023771</v>
+        <v>7.180950390016381</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>31.30269200827341</v>
+        <v>31.30269200825511</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>37.17025837677009</v>
+        <v>37.1702583766771</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>16.09647646789323</v>
+        <v>16.09647646790653</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>43.61252905938623</v>
+        <v>43.61252905941136</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>49.97037039485529</v>
+        <v>49.9703703949351</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>48.90059431300516</v>
+        <v>48.90059431304881</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>56.03034607061828</v>
+        <v>56.0303460706342</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>61.37362912224397</v>
+        <v>61.37362912231332</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>19.51214568765521</v>
+        <v>19.51214568762144</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>50.61360725841881</v>
+        <v>50.61360725844393</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>58.29008365909372</v>
+        <v>58.29008365911146</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>3.32963134405485</v>
+        <v>3.329631344018811</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.02718608046779</v>
+        <v>27.0271860804679</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>32.74002423213413</v>
+        <v>32.74002423216187</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>2.501066320758458</v>
+        <v>2.50106632075175</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>26.61480678986333</v>
+        <v>26.61480678987072</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>32.47605307982302</v>
+        <v>32.47605307985894</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>11.41017795955371</v>
+        <v>11.41017795955303</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>38.91776753210137</v>
+        <v>38.91776753208681</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>45.26980978875552</v>
+        <v>45.26980978874802</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>44.1925322042059</v>
+        <v>44.19253220421682</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>51.31972658619064</v>
+        <v>51.31972658618609</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>56.6582155590588</v>
+        <v>56.65821555903334</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>14.80936457524045</v>
+        <v>14.80936457521874</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>45.89703360350323</v>
+        <v>45.89703360353063</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>53.56935449739716</v>
+        <v>53.56935449740102</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>6.947128894431433</v>
+        <v>6.947128894398919</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.6509272832984</v>
+        <v>30.6509272832693</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>36.36905722495861</v>
+        <v>36.3690572249984</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>6.11140260621686</v>
+        <v>6.11140260620083</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>30.2296835950135</v>
+        <v>30.22968359498815</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>36.09741373481414</v>
+        <v>36.097413734803</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>15.02513357427232</v>
+        <v>15.02513357423446</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>42.53925006157077</v>
+        <v>42.53925006157088</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>48.89676367095375</v>
+        <v>48.89676367099899</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>47.81552260553677</v>
+        <v>47.81552260550835</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>54.94481077807505</v>
+        <v>54.94481077804458</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>60.28714256118279</v>
+        <v>60.28714256116199</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>18.43147319810361</v>
+        <v>18.43147319805995</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>49.53017329624718</v>
+        <v>49.53017329620421</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>57.20505006552877</v>
+        <v>57.20505006555605</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>20.48202702341961</v>
+        <v>20.48202702346338</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>44.19116289101827</v>
+        <v>44.19116289106545</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>49.90875711725242</v>
+        <v>49.90875711731222</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>19.65465154735169</v>
+        <v>19.65465154734806</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>43.77956701183096</v>
+        <v>43.77956701182914</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>49.64616547811805</v>
+        <v>49.6461654781035</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>28.57210032031923</v>
+        <v>28.57210032031195</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>56.09142515009385</v>
+        <v>56.09142515010841</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>62.44834356954424</v>
+        <v>62.44834356952923</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>61.37952522630268</v>
+        <v>61.37952522633985</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>68.51000572379438</v>
+        <v>68.51000572383599</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>73.85267097693064</v>
+        <v>73.85267097698123</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>31.98733878139273</v>
+        <v>31.98733878137113</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>63.09244517233752</v>
+        <v>63.09244517233388</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>70.767921331019</v>
+        <v>70.76792133104446</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-9.393270634921475</v>
+        <v>-9.393270634899192</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>14.30222143331411</v>
+        <v>14.30222143328136</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>20.01561241712101</v>
+        <v>20.01561241715784</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-10.22331403063562</v>
+        <v>-10.22331403064551</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>13.88821010316325</v>
+        <v>13.88821010311516</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>19.75001885175242</v>
+        <v>19.75001885170058</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-1.315497745446816</v>
+        <v>-1.315497745437266</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>26.18999113335632</v>
+        <v>26.18999113334381</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>32.54258694055692</v>
+        <v>32.54258694057783</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>31.46493345516636</v>
+        <v>31.46493345518137</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>38.5917023046254</v>
+        <v>38.5917023045847</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>43.93033848050776</v>
+        <v>43.93033848051003</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>2.084236319299851</v>
+        <v>2.084236319349191</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>33.16944080202141</v>
+        <v>33.16944080202346</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>40.84230236602706</v>
+        <v>40.84230236596544</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-5.783417799414234</v>
+        <v>-5.783417799341475</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>17.91831770141208</v>
+        <v>17.91831770145597</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>23.63700078056648</v>
+        <v>23.63700078061423</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-6.620622585583885</v>
+        <v>-6.620622585577745</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>17.49544180929398</v>
+        <v>17.49544180924532</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>23.36373474174774</v>
+        <v>23.36373474172432</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>2.29181253429191</v>
+        <v>2.291812534251097</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.80382808960416</v>
+        <v>29.80382808957357</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>36.16189556570883</v>
+        <v>36.16189556569246</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>35.0802787821592</v>
+        <v>35.08027878215931</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>42.20914145464074</v>
+        <v>42.20914145463358</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>47.55162052095214</v>
+        <v>47.5516205208687</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>5.698699957814927</v>
+        <v>5.698699957821066</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>36.79493533240075</v>
+        <v>36.79493533242486</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>44.47035294383021</v>
+        <v>44.47035294385954</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>7.755000569026482</v>
+        <v>7.755000569039442</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.46207367713474</v>
+        <v>31.46207367714566</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>37.18022088786732</v>
+        <v>37.18022088785618</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>6.926146576106238</v>
+        <v>6.926146576108398</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>31.04884559233686</v>
+        <v>31.04884559234243</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>36.91600670950537</v>
+        <v>36.91600670947786</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>15.8422997226903</v>
+        <v>15.84229972269212</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>43.3595237640079</v>
+        <v>43.35952376396425</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>49.7169958924005</v>
+        <v>49.71699589239687</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>48.64780175926613</v>
+        <v>48.6478017592576</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>55.77785672145079</v>
+        <v>55.77785672144363</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>61.12066923991175</v>
+        <v>61.12066923991402</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>19.25808576863004</v>
+        <v>19.25808576865903</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>50.36072747307729</v>
+        <v>50.36072747307013</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>58.03674436169079</v>
+        <v>58.03674436174775</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-16.24785863529656</v>
+        <v>-16.24785863528133</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>7.446101839813981</v>
+        <v>7.446101839816027</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>13.15894322678377</v>
+        <v>13.15894322683424</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-17.07902812740668</v>
+        <v>-17.07902812736462</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>7.030866820494101</v>
+        <v>7.030866820512063</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>12.89210242745957</v>
+        <v>12.89210242747389</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-8.172026733841914</v>
+        <v>-8.172026733881932</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.3317779119784</v>
+        <v>19.33177791197385</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>25.6838184501646</v>
+        <v>25.68381845014277</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>24.6065659340902</v>
+        <v>24.60656593406474</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>31.73290019279147</v>
+        <v>31.73290019279056</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>37.07136245534979</v>
+        <v>37.07136245534069</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-4.772376540117659</v>
+        <v>-4.772376540083894</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.31092025902625</v>
+        <v>26.31092025899908</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>33.98323208228565</v>
+        <v>33.98323208231317</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-12.63640289689171</v>
+        <v>-12.63640289690728</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>11.06380077656398</v>
+        <v>11.06380077657524</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>16.78193400288091</v>
+        <v>16.7819340028377</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-13.47473341655303</v>
+        <v>-13.47473341656019</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.63970160509676</v>
+        <v>10.63970160505868</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>16.50742106796587</v>
+        <v>16.50742106795677</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-4.563113260689089</v>
+        <v>-4.563113260651686</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.94721783281283</v>
+        <v>22.94721783277656</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.30472977979797</v>
+        <v>29.30472977975022</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>28.22351412039676</v>
+        <v>28.22351412039892</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>35.35194212840098</v>
+        <v>35.35194212840496</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>40.69424712751014</v>
+        <v>40.69424712750832</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-1.156310112262087</v>
+        <v>-1.156310112295738</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.93801711147613</v>
+        <v>29.93801711148909</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>37.61288488073636</v>
+        <v>37.61288488072772</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>0.9015878237372483</v>
+        <v>0.9015878237262207</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>24.60712889134162</v>
+        <v>24.60712889137425</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.32472636833835</v>
+        <v>30.32472636838201</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>0.07160760827081347</v>
+        <v>0.07160760822442924</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>24.1926770030991</v>
+        <v>24.19267700310091</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.0592647829967</v>
+        <v>30.05926478296668</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>8.98694574396551</v>
+        <v>8.986945743966533</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>36.50248511102846</v>
+        <v>36.5024851109922</v>
       </c>
     </row>
     <row r="580">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>41.79060826789417</v>
+        <v>41.79060826790452</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>48.92022851579394</v>
+        <v>48.92022851580838</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>54.26286697846375</v>
+        <v>54.26286697845966</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>12.4026471910165</v>
+        <v>12.40264719106743</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>43.50338042871998</v>
+        <v>43.50338042869269</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>51.17884751505856</v>
+        <v>51.17884751504037</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>1.73236401155474</v>
+        <v>1.73236401147118</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.42986285935114</v>
+        <v>25.42986285934397</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>31.14394086604533</v>
+        <v>31.14394086601918</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>0.9038348037797626</v>
+        <v>0.9038348037723729</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.01770679599393</v>
+        <v>25.0177067960011</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>30.88030485363196</v>
+        <v>30.88030485364014</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>9.813046948420254</v>
+        <v>9.813046948392174</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>37.32075226676749</v>
+        <v>37.32075226677487</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>43.67408079359437</v>
+        <v>43.674080793578</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>42.59635414187663</v>
+        <v>42.59635414186947</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>49.72347593133235</v>
+        <v>49.72347593131404</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>55.06332736637818</v>
+        <v>55.06332736637249</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>13.21439113779967</v>
+        <v>13.21439113783901</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>44.30179781359617</v>
+        <v>44.30179781350544</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>51.97563130445404</v>
+        <v>51.97563130442153</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>5.344357729292131</v>
+        <v>5.344357729290426</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.04810051167214</v>
+        <v>29.04810051171772</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>34.76747090242314</v>
+        <v>34.76747090245793</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>4.508666801491007</v>
+        <v>4.508666801450534</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.62707938938</v>
+        <v>28.62707938934863</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>34.49616198162219</v>
+        <v>34.49616198158945</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>13.42249774183709</v>
+        <v>13.42249774182084</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>40.93673025978022</v>
+        <v>40.93673025978943</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>47.29553076236105</v>
+        <v>47.29553076234468</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>46.21384022560015</v>
+        <v>46.2138402256363</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>53.34305601538072</v>
+        <v>53.3430560153373</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>58.68675069653578</v>
+        <v>58.68675069647405</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>16.83099524170324</v>
+        <v>16.83099524171552</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>47.92943363585708</v>
+        <v>47.92943363578455</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>55.60582312681321</v>
+        <v>55.60582312679547</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>18.87849052196372</v>
+        <v>18.87849052198543</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>42.58757101892944</v>
+        <v>42.58757101896889</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>48.30640566105761</v>
+        <v>48.30640566110127</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>18.0511512261878</v>
+        <v>18.0511512261803</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>42.17619858661486</v>
+        <v>42.17619858660099</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>48.04414939514685</v>
+        <v>48.04414939513116</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>26.96870001902925</v>
+        <v>26.96870001907961</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>54.48814113895945</v>
+        <v>54.48814113901163</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>60.84634642498121</v>
+        <v>60.84634642498791</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>59.77707997363255</v>
+        <v>59.77707997360527</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>66.90748789563678</v>
+        <v>66.90748789560574</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>72.25151620094026</v>
+        <v>72.2515162008966</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>30.38609741857055</v>
+        <v>30.38609741862034</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>61.49094226207204</v>
+        <v>61.49094226206658</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>69.16793119948987</v>
+        <v>69.16793119941165</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>3.849933290886032</v>
+        <v>3.84993329082771</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.54702713288872</v>
+        <v>27.54702713291134</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>33.26048156884075</v>
+        <v>33.26048156879595</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>3.021743547625864</v>
+        <v>3.021743547586301</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>27.13496433407976</v>
+        <v>27.1349643340834</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>32.99680758102703</v>
+        <v>32.99680758103021</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>11.93044844972961</v>
+        <v>11.93044844969323</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>39.43752075487451</v>
+        <v>39.43752075482358</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>45.79021377399202</v>
+        <v>45.7902137738681</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>44.7121833479158</v>
+        <v>44.7121833479399</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>51.83941272192793</v>
+        <v>51.83941272190656</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>57.17804888017234</v>
+        <v>57.17804888014642</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>15.32945657107529</v>
+        <v>15.3294565710463</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>46.41669452789073</v>
+        <v>46.4166945278963</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>54.08978405861374</v>
+        <v>54.08978405861033</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>7.457566002809688</v>
+        <v>7.457566002823672</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.16090331930649</v>
+        <v>31.16090331931365</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>36.87964977660862</v>
+        <v>36.87964977658292</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>6.622214527216659</v>
+        <v>6.622214527234849</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>30.73997558804273</v>
+        <v>30.73997558807911</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>36.60830293193634</v>
+        <v>36.60830293195816</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>15.53553811188123</v>
+        <v>15.53553811188157</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>43.04913714363794</v>
+        <v>43.04913714361531</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>49.40730176092801</v>
+        <v>49.40730176090595</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>48.32530792719909</v>
+        <v>48.32530792718056</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>55.45463116090706</v>
+        <v>55.45463116090899</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>60.79711015686563</v>
+        <v>60.7971101568471</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>18.94169955039921</v>
+        <v>18.94169955036613</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>50.03996843173364</v>
+        <v>50.03996843175217</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>57.71561400979691</v>
+        <v>57.71561400979361</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>20.99304409975797</v>
+        <v>20.99304409974501</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>44.70171893266182</v>
+        <v>44.70171893265795</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>50.41992963693222</v>
+        <v>50.41992963695746</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>20.16604345584107</v>
+        <v>20.16604345583322</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>44.29043904192564</v>
+        <v>44.29043904190529</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>50.15763470507225</v>
+        <v>50.15763470506111</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.08308488093302</v>
+        <v>29.08308488088754</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>56.60189228949478</v>
+        <v>56.60189228945067</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>62.95946167295914</v>
+        <v>62.9594616729173</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>61.88989065998349</v>
+        <v>61.88989065998861</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>69.02040620499325</v>
+        <v>69.02040620503361</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>74.3632187446825</v>
+        <v>74.36321874467056</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>32.49814527690181</v>
+        <v>32.49814527693739</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>63.60282042437676</v>
+        <v>63.60282042443656</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>71.27906536947363</v>
+        <v>71.2790653694767</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>8.516694369006235</v>
+        <v>8.51669436900794</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>32.21624603422082</v>
+        <v>32.21624603423071</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>37.93037361314326</v>
+        <v>37.93037361313507</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>7.690106007667385</v>
+        <v>7.690106007640214</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>31.80627613556691</v>
+        <v>31.80627613559044</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>37.66888469185641</v>
+        <v>37.66888469183776</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>16.59993192957039</v>
+        <v>16.5999319295123</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>44.10977928802616</v>
+        <v>44.10977928805902</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>50.46316757166709</v>
+        <v>50.46316757168186</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>49.38545325756773</v>
+        <v>49.38545325760923</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>56.51312604231053</v>
+        <v>56.51312604229041</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>61.85301604700281</v>
+        <v>61.85301604704101</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>20.00103545133515</v>
+        <v>20.00103545133185</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>51.09092240499648</v>
+        <v>51.09092240499204</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>58.76492522329396</v>
+        <v>58.76492522329498</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>12.12995513825057</v>
+        <v>12.12995513821055</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>35.83575098508184</v>
+        <v>35.8357509850491</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>41.55517093377101</v>
+        <v>41.55517093373099</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>11.29620469431153</v>
+        <v>11.29620469428118</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>35.4169156649467</v>
+        <v>35.41691566494136</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>41.28600876069025</v>
+        <v>41.28600876071731</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>20.21064962256797</v>
+        <v>20.21064962254353</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>47.72702442593287</v>
+        <v>47.72702442593025</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>54.08588467462617</v>
+        <v>54.08588467464436</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>53.00420634568694</v>
+        <v>53.00420634569012</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>60.13397322396848</v>
+        <v>60.13397322395757</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>65.477706579838</v>
+        <v>65.47770657984209</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>23.61890667564522</v>
+        <v>23.61890667564875</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>54.71982576284096</v>
+        <v>54.71982576285926</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>62.39638455949738</v>
+        <v>62.39638455951795</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>25.66189729206234</v>
+        <v>25.66189729201811</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>49.37303083541973</v>
+        <v>49.37303083539415</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>55.09191503125565</v>
+        <v>55.09191503126065</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>24.83649883962561</v>
+        <v>24.83649883964334</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>48.96384456985741</v>
+        <v>48.96384456993017</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>54.83180586200568</v>
+        <v>54.83180586199067</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>33.75466148670488</v>
+        <v>33.75466148667941</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>61.27624486697754</v>
+        <v>61.27624486698845</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>67.63450989385591</v>
+        <v>67.6345098938484</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>66.56525606191131</v>
+        <v>66.56525606191904</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>73.69621509318391</v>
+        <v>73.69621509318516</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>79.04028195128454</v>
+        <v>79.04028195128545</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>37.171818727934</v>
+        <v>37.17181872795037</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>68.27914431751832</v>
+        <v>68.27914431759289</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>75.95630254965236</v>
+        <v>75.95630254965646</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>7.386890138633806</v>
+        <v>7.386890138651996</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.08441442441471</v>
+        <v>31.08441442443653</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>36.79847272666323</v>
+        <v>36.79847272666869</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>6.560331960258953</v>
+        <v>6.560331960244628</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>30.67433992078917</v>
+        <v>30.67433992080509</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>36.53694429274877</v>
+        <v>36.53694429279948</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>15.4690402625606</v>
+        <v>15.46904026264939</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>42.976744937411</v>
+        <v>42.97674493743135</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>49.3300373361178</v>
+        <v>49.33003733621557</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>48.25199450452043</v>
+        <v>48.25199450450928</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>55.3788411617919</v>
+        <v>55.37884116175438</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>60.71897716606428</v>
+        <v>60.71897716609065</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>18.86971090107533</v>
+        <v>18.86971090108988</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>49.95695989583201</v>
+        <v>49.95695989585566</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>57.63087265930822</v>
+        <v>57.63087265931732</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>11.00129346881385</v>
+        <v>11.00129346877019</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>34.70506161905585</v>
+        <v>34.70506161900492</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>40.42441221450257</v>
+        <v>40.42441221446255</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>10.16757389764722</v>
+        <v>10.16757389759652</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>34.28612239984942</v>
+        <v>34.2861223998858</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>40.15521119546564</v>
+        <v>40.15521119547633</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>19.08090084560682</v>
+        <v>19.08090084561228</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>46.59513265849374</v>
+        <v>46.59513265848601</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>52.95389694050276</v>
+        <v>52.95389694053095</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>51.87189003866909</v>
+        <v>51.87189003867068</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>59.00083069539481</v>
+        <v>59.00083069541266</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>64.34480996039109</v>
+        <v>64.34480996041985</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>22.48872458022412</v>
+        <v>22.4887245802132</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>53.58700515080874</v>
+        <v>53.58700515079236</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>61.26347385088205</v>
+        <v>61.26347385088728</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>24.53267301421066</v>
+        <v>24.53267301419975</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>48.24177865927014</v>
+        <v>48.24177865933562</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>53.96059354209727</v>
+        <v>53.96059354216639</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>23.70730497526312</v>
+        <v>23.7073049752356</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>47.83248799881481</v>
+        <v>47.83248799885665</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>53.70044503841153</v>
+        <v>53.70044503838947</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>32.62434954037904</v>
+        <v>32.62434954041906</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>60.14378973445126</v>
+        <v>60.14378973444751</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>66.5019588401493</v>
+        <v>66.50195884017465</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>65.43237610715879</v>
+        <v>65.43237610719972</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>72.56250879973264</v>
+        <v>72.56250879976152</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>77.90682164455767</v>
+        <v>77.90682164462997</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>36.04107320429397</v>
+        <v>36.04107320427919</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>67.14576002059754</v>
+        <v>67.14576002060845</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>74.8228281909138</v>
+        <v>74.82282819091061</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>4.368553149038565</v>
+        <v>4.368553148973422</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.06755216587577</v>
+        <v>28.0675521658104</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>33.78140962006408</v>
+        <v>33.78140962007318</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>3.5411130483668</v>
+        <v>3.541113048327123</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>27.65640302999588</v>
+        <v>27.65640303001395</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>33.51867774960191</v>
+        <v>33.51867774956712</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>12.45043205748913</v>
+        <v>12.4504320574972</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>39.95964242053502</v>
+        <v>39.95964242057333</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>46.31276405846255</v>
+        <v>46.31276405841048</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>45.23496440077086</v>
+        <v>45.23496440080179</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>52.36260708015742</v>
+        <v>52.36260708012854</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>57.7019078988619</v>
+        <v>57.70190789884371</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>15.85012566455804</v>
+        <v>15.8501256645145</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>46.93974102993535</v>
+        <v>46.93974102993569</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>54.61331102870371</v>
+        <v>54.61331102870189</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>7.976992265294815</v>
+        <v>7.976992265262187</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>31.68223518361025</v>
+        <v>31.68223518358581</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>37.40138492527602</v>
+        <v>37.40138492525533</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>7.142390054726196</v>
+        <v>7.142390054733358</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>31.262220638676</v>
+        <v>31.2622206386868</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>37.13097978048721</v>
+        <v>37.13097978046152</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>16.05632788265028</v>
+        <v>16.0563278826504</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>43.57206541400249</v>
+        <v>43.57206541402807</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>49.93065892493676</v>
+        <v>49.93065892493495</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>48.84889555132291</v>
+        <v>48.84889555127459</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>55.97863216351867</v>
+        <v>55.97863216348604</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>61.32177608830658</v>
+        <v>61.32177608828293</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>19.46317518546163</v>
+        <v>19.46317518546526</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>50.56382215241693</v>
+        <v>50.56382215242444</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>58.23994825178225</v>
+        <v>58.23994825180226</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>21.51121202328988</v>
+        <v>21.51121202329727</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>45.22179267556508</v>
+        <v>45.22179267556679</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>50.94040670303956</v>
+        <v>50.94040670304024</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>20.68496130547407</v>
+        <v>20.68496130547759</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>44.81142670077917</v>
+        <v>44.81142670079178</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>50.6790541401799</v>
+        <v>50.67905414017058</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.60261702896092</v>
+        <v>29.60261702897866</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>57.12356315034582</v>
+        <v>57.123563150344</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>63.48156146785071</v>
+        <v>63.4815614678357</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>62.41222192296719</v>
+        <v>62.41222192293809</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>69.5431508663264</v>
+        <v>69.54315086621806</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>74.88662838248466</v>
+        <v>74.8866283823828</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>33.01836413137492</v>
+        <v>33.01836413135651</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>64.12541765733532</v>
+        <v>64.12541765736442</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>71.80214323638039</v>
+        <v>71.8021432363622</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-3.599568708409048</v>
+        <v>-3.599568708454182</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>20.09627961689749</v>
+        <v>20.09627961690534</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>25.81000964412486</v>
+        <v>25.81000964414192</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-4.428195919522306</v>
+        <v>-4.428195919563915</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>19.68404172068493</v>
+        <v>19.68404172067584</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>25.54623436921564</v>
+        <v>25.54623436923542</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>4.480102531206729</v>
+        <v>4.48010253122867</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.98585948553908</v>
+        <v>31.98585948553192</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>38.33882938228406</v>
+        <v>38.33882938224404</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>37.26081249421939</v>
+        <v>37.26081249423315</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>44.38732120193662</v>
+        <v>44.387321201924</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>49.72698970802638</v>
+        <v>49.72698970798659</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>7.880701537388621</v>
+        <v>7.880701537419885</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>38.96595183360249</v>
+        <v>38.96595183359919</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>46.63950551781885</v>
+        <v>46.63950551779566</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>0.01983835327597561</v>
+        <v>0.01983835326949546</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>23.72193041181605</v>
+        <v>23.72193041183185</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.44095274117352</v>
+        <v>29.44095274118125</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-0.8159492617381936</v>
+        <v>-0.8159492617833273</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>23.30082889997231</v>
+        <v>23.30082889991421</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.16950593146224</v>
+        <v>29.16950593140495</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>8.09696814414723</v>
+        <v>8.096968144182359</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>35.60925206851651</v>
+        <v>35.60925206862213</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>41.96769385163383</v>
+        <v>41.96769385162337</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>40.88571289115474</v>
+        <v>40.88571289120488</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>48.01431550908931</v>
+        <v>48.014315509144</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>53.35782707041879</v>
+        <v>53.35782707042084</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>11.50471951012547</v>
+        <v>11.50471951011092</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>42.60100115274973</v>
+        <v>42.60100115284182</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>50.27711093942706</v>
+        <v>50.2771109393925</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>13.55235046751863</v>
+        <v>13.55235046753352</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>37.25977988440808</v>
+        <v>37.25977988441774</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>42.97826651131457</v>
+        <v>42.97826651133299</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>12.72491367009592</v>
+        <v>12.72491367005363</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>36.84832616885909</v>
+        <v>36.84832616882248</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>42.71587149509854</v>
+        <v>42.7158714950326</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>21.64154858936682</v>
+        <v>21.64154858936864</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>49.15904077104152</v>
+        <v>49.15904077104879</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>55.51688738461961</v>
+        <v>55.51688738459391</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>54.44732951891454</v>
+        <v>54.44732951897355</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>61.5771241933778</v>
+        <v>61.577124193372</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>66.92096940313603</v>
+        <v>66.92096940311465</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>25.05819917776931</v>
+        <v>25.05819917771997</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>56.16088682822372</v>
+        <v>56.16088682823964</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>63.83759611776723</v>
+        <v>63.83759611775359</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>4.058716292443126</v>
+        <v>4.058716292374914</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>27.75594854874281</v>
+        <v>27.75594854874645</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>33.47013308769941</v>
+        <v>33.47013308769213</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>3.231733662716909</v>
+        <v>3.231733662751584</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>27.34542836679372</v>
+        <v>27.34542836680815</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>33.20818033632803</v>
+        <v>33.20818033634394</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>12.14029462952373</v>
+        <v>12.14029462957284</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>39.64768150607584</v>
+        <v>39.64768150605583</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>46.00110193816475</v>
+        <v>46.00110193807016</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>44.92306301950133</v>
+        <v>44.92306301947848</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>52.04984401902242</v>
+        <v>52.04984401901184</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>57.39006811539228</v>
+        <v>57.39006811534044</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>15.54116040770986</v>
+        <v>15.541160407677</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>46.6280979382402</v>
+        <v>46.62809793826578</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>54.30212207343946</v>
+        <v>54.30212207339626</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>7.673037706052913</v>
+        <v>7.673037706045182</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>31.37651382818591</v>
+        <v>31.37651382821274</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>37.09599072847571</v>
+        <v>37.09599072848799</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>6.838893760913255</v>
+        <v>6.838893761006023</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>30.9571290082598</v>
+        <v>30.95712900821774</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>36.8263654788136</v>
+        <v>36.82636547880223</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>15.75207336622099</v>
+        <v>15.75207336620439</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>43.26598737840787</v>
+        <v>43.26598737833216</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>49.62487976162741</v>
+        <v>49.62487976161809</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>48.54287671231894</v>
+        <v>48.54287671228415</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>55.67175171951247</v>
+        <v>55.67175171950679</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>61.01581910536525</v>
+        <v>61.01581910534331</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>19.16009215604184</v>
+        <v>19.16009215605299</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>50.2580612676188</v>
+        <v>50.2580612677102</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>57.93464141023001</v>
+        <v>57.93464141026776</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>21.20452507625031</v>
+        <v>21.20452507624076</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>44.91333868993023</v>
+        <v>44.91333868995001</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>50.63227987203116</v>
+        <v>50.63227987202571</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>20.37873259039133</v>
+        <v>20.37873259045329</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>44.50360235857737</v>
+        <v>44.5036023585652</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>50.37170706607161</v>
+        <v>50.37170706609025</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.29562982355195</v>
+        <v>29.29562982354308</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>56.81475221502784</v>
+        <v>56.81475221503523</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>63.17304941705935</v>
+        <v>63.17304941704445</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>62.10347049986784</v>
+        <v>62.10347049994401</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>69.23353753490856</v>
+        <v>69.2335375349039</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>74.57793851247469</v>
+        <v>74.57793851241557</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>32.71254853052061</v>
+        <v>32.71254853053811</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>63.81692386194889</v>
+        <v>63.81692386188716</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>71.49410347279364</v>
+        <v>71.49410347277193</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>8.174998641109131</v>
+        <v>8.174998641122773</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>31.87218939031208</v>
+        <v>31.872189390353</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>37.58554312724935</v>
+        <v>37.58554312730665</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>7.348073931678744</v>
+        <v>7.348073931688749</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>31.4618177046891</v>
+        <v>31.46181770465454</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>37.32351178344082</v>
+        <v>37.32351178348539</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>16.25713405170108</v>
+        <v>16.25713405170119</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>43.76435373797879</v>
+        <v>43.76435373797891</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>50.11690573052987</v>
+        <v>50.11690573055169</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>49.0392932642478</v>
+        <v>49.03929326426372</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>56.16606616114971</v>
+        <v>56.16606616113835</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>61.5050106046176</v>
+        <v>61.50501060457553</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>19.6572064212172</v>
+        <v>19.65720642117354</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>50.74384018190368</v>
+        <v>50.74384018193119</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>58.41699985363117</v>
+        <v>58.41699985362207</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>11.786125850468</v>
+        <v>11.7861258504373</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>35.48956012584163</v>
+        <v>35.48956012581981</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>41.20820579207201</v>
+        <v>41.2082057920686</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>10.9520395341143</v>
+        <v>10.95203953406359</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>35.07032362623646</v>
+        <v>35.07032362620008</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>40.93850174910629</v>
+        <v>40.9385017490806</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>19.86571829361036</v>
+        <v>19.86571829356864</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>47.37946476627165</v>
+        <v>47.37946476629541</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>53.73748825641222</v>
+        <v>53.73748825639949</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>52.65591230723815</v>
+        <v>52.65591230724543</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>59.78477902167252</v>
+        <v>59.78477902166172</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>65.12756635806328</v>
+        <v>65.12756635800905</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>23.27294389267773</v>
+        <v>23.27294389268899</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>54.37060859441554</v>
+        <v>54.37060859438678</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>62.04632395996849</v>
+        <v>62.04632395995428</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>25.31794771077556</v>
+        <v>25.31794771078295</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>49.02671936419095</v>
+        <v>49.02671936419084</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>54.74482923145455</v>
+        <v>54.7448292314907</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>24.49221257694022</v>
+        <v>24.492212576842</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>48.61713102450754</v>
+        <v>48.61713102449845</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>54.48417736635837</v>
+        <v>54.484177366342</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>33.40960884682282</v>
+        <v>33.40960884680622</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>60.92856358185894</v>
+        <v>60.92856358188213</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>67.28599180237244</v>
+        <v>67.28599180236152</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>66.21683914916467</v>
+        <v>66.21683914917172</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>73.34689793693575</v>
+        <v>73.34689793693018</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>78.69001871364627</v>
+        <v>78.69001871365354</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>36.82573359178205</v>
+        <v>36.82573359178092</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>67.92980451020433</v>
+        <v>67.92980451021263</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>75.60611918173809</v>
+        <v>75.60611918183325</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>4.947581652264592</v>
+        <v>4.94758165229381</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.64651955945111</v>
+        <v>28.64651955945486</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>34.36041076741274</v>
+        <v>34.36041076738</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>4.120413207951277</v>
+        <v>4.120413207904438</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>28.23569234472255</v>
+        <v>28.23569234475348</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>34.09797094588315</v>
+        <v>34.0979709458645</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>13.02968285384985</v>
+        <v>13.02968285383075</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>40.53880015865569</v>
+        <v>40.53880015867024</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>46.89195440840557</v>
+        <v>46.89195440835896</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>45.8141054865789</v>
+        <v>45.81410548659709</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>52.9416290238705</v>
+        <v>52.94162902381684</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>58.28105875652669</v>
+        <v>58.2810587565176</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>16.42937410096055</v>
+        <v>16.42937410095691</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>47.51880623456098</v>
+        <v>47.51880623454279</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>55.19243490118491</v>
+        <v>55.1924349012031</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>8.555899250551068</v>
+        <v>8.55589925055482</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>32.2610809975407</v>
+        <v>32.26108099756992</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>37.98026446809557</v>
+        <v>37.98026446810307</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>7.721568701386548</v>
+        <v>7.721568701378818</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>31.84138838705825</v>
+        <v>31.84138838703278</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>37.71015138045981</v>
+        <v>37.71015138043207</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>16.63545709422418</v>
+        <v>16.63545709424794</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>44.15110150400595</v>
+        <v>44.151101504057</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>50.50972760022954</v>
+        <v>50.50972760024409</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>49.42791495782829</v>
+        <v>49.42791495785364</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>56.55753239125077</v>
+        <v>56.55753239123258</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>61.90080525136362</v>
+        <v>61.9008052513344</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>20.04230195968363</v>
+        <v>20.04230195969182</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>51.14276560374297</v>
+        <v>51.14276560375775</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>58.81895034889259</v>
+        <v>58.81895034890714</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>22.08915892878723</v>
+        <v>22.08915892876279</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>45.7996783228965</v>
+        <v>45.79967832286728</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>51.51832610965106</v>
+        <v>51.51832610965629</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>21.26317978465157</v>
+        <v>21.2631797846094</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>45.38963418198931</v>
+        <v>45.38963418193258</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>51.25726549527961</v>
+        <v>51.25726549529007</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>30.18078599161275</v>
+        <v>30.18078599161821</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>57.70163890676268</v>
+        <v>57.70163890676996</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>64.05966984342614</v>
+        <v>64.05966984343523</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>62.99028098635459</v>
+        <v>62.99028098636482</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>70.12109071365579</v>
+        <v>70.12109071363385</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>75.46469715635486</v>
+        <v>75.46469715630029</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>33.59653063099812</v>
+        <v>33.59653063104678</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>64.70340071143401</v>
+        <v>64.70340071145584</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>72.38018497523477</v>
+        <v>72.38018497526933</v>
       </c>
     </row>
   </sheetData>
